--- a/fotosieve/LC1/1500/LC1.1500.xlsx
+++ b/fotosieve/LC1/1500/LC1.1500.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\flood_project\fotosieve\LC1\1500\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia.EMMA\Documents\GitHub\hillslope-project\fotosieve\LC1\1500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88987AA8-3BEC-46D4-8B2B-209158A8D552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CCD75B-D838-42DF-8B66-0CD56CEEEBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC1.1500" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="50">
   <si>
     <t>perc. diff. area</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>corrected diameter (mm)</t>
+  </si>
+  <si>
+    <t>corrected diameter a (mm)</t>
   </si>
 </sst>
 </file>
@@ -511,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:S254"/>
+  <dimension ref="A3:T254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5:R254"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,12 +527,12 @@
     <col min="18" max="18" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -575,8 +578,11 @@
       <c r="S4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -629,8 +635,12 @@
         <f>SQRT(O5)*1000</f>
         <v>11.303363807</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <f>D5*S$5</f>
+        <v>1190.4891246328707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>-104.70115584150599</v>
       </c>
@@ -672,8 +682,12 @@
         <f t="shared" ref="R6:R69" si="0">S$5*E6</f>
         <v>2665.7975461787296</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <f t="shared" ref="T6:T69" si="1">D6*S$5</f>
+        <v>7036.4544580430802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>-104.701183553666</v>
       </c>
@@ -715,8 +729,18 @@
         <f t="shared" si="0"/>
         <v>459.35720766195186</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>552.10980867823253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -754,15 +778,19 @@
         <v>55.649092781740102</v>
       </c>
       <c r="N9">
-        <f t="shared" ref="N9:N19" si="1">H9*$O$5</f>
+        <f t="shared" ref="N9:N19" si="2">H9*$O$5</f>
         <v>3.8506127132046952</v>
       </c>
       <c r="R9">
         <f t="shared" si="0"/>
         <v>2452.5892161224497</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>4519.6357658495826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>-104.70097973133301</v>
       </c>
@@ -797,15 +825,19 @@
         <v>24.670806124952701</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0050035676096847E-2</v>
       </c>
       <c r="R10">
         <f t="shared" si="0"/>
         <v>277.43055633547488</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>366.85680191458914</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>-104.700980451129</v>
       </c>
@@ -840,15 +872,19 @@
         <v>37.8415381957671</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.40322960126332263</v>
       </c>
       <c r="R11">
         <f t="shared" si="0"/>
         <v>560.98248019888501</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>1476.399087607303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>-104.701056389645</v>
       </c>
@@ -883,15 +919,19 @@
         <v>20.560539842834199</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2131632297475523</v>
       </c>
       <c r="R12">
         <f t="shared" si="0"/>
         <v>1543.3528237805324</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>2304.6918164528006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>-104.701032996264</v>
       </c>
@@ -926,15 +966,19 @@
         <v>17.111547178590701</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0468613404355134</v>
       </c>
       <c r="R13">
         <f t="shared" si="0"/>
         <v>1893.6474354614152</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>3291.744249919444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>-104.700964735575</v>
       </c>
@@ -969,15 +1013,19 @@
         <v>37.621406021645299</v>
       </c>
       <c r="N14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.1736011947739435E-2</v>
       </c>
       <c r="R14">
         <f t="shared" si="0"/>
         <v>273.2458722290055</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>687.15005130300881</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>-104.700991248075</v>
       </c>
@@ -1012,15 +1060,19 @@
         <v>12.4330639157711</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.195890072187801</v>
       </c>
       <c r="R15">
         <f t="shared" si="0"/>
         <v>1133.5946987001284</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>1538.1341647879756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>-104.70096677499799</v>
       </c>
@@ -1055,15 +1107,19 @@
         <v>41.428775646403501</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.86216519306872663</v>
       </c>
       <c r="R16">
         <f t="shared" si="0"/>
         <v>924.53948951473865</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>2032.7390777952166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>-104.70094602087001</v>
       </c>
@@ -1098,15 +1154,19 @@
         <v>24.881660542856199</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21260267950005352</v>
       </c>
       <c r="R17">
         <f t="shared" si="0"/>
         <v>517.06363227983411</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>698.84309879962279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>-104.70087752025</v>
       </c>
@@ -1141,15 +1201,19 @@
         <v>20.6949827390875</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24096673890450776</v>
       </c>
       <c r="R18">
         <f t="shared" si="0"/>
         <v>443.49814912721848</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>874.71292379079944</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>-104.700871042082</v>
       </c>
@@ -1184,15 +1248,25 @@
         <v>31.0833105612464</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.40029098249619449</v>
       </c>
       <c r="R19">
         <f t="shared" si="0"/>
         <v>774.91924151020646</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>956.96460224463715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1230,15 +1304,19 @@
         <v>27.143701510647201</v>
       </c>
       <c r="N21">
-        <f t="shared" ref="N21:N42" si="2">H21*$O$5</f>
+        <f t="shared" ref="N21:N42" si="3">H21*$O$5</f>
         <v>0.16699020559289057</v>
       </c>
       <c r="R21">
         <f t="shared" si="0"/>
         <v>426.25896792365251</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>686.51698445410773</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>-104.70085412687099</v>
       </c>
@@ -1273,15 +1351,19 @@
         <v>16.3946828104527</v>
       </c>
       <c r="N22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.3406201941720174E-2</v>
       </c>
       <c r="R22">
         <f t="shared" si="0"/>
         <v>241.36881659155944</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>337.89172211150236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>-104.700809019633</v>
       </c>
@@ -1316,15 +1398,19 @@
         <v>18.032506784720599</v>
       </c>
       <c r="N23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.1140662739794005E-2</v>
       </c>
       <c r="R23">
         <f t="shared" si="0"/>
         <v>228.99743063191022</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>279.83365131942202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>-104.700857126023</v>
       </c>
@@ -1359,15 +1445,19 @@
         <v>44.418227782229501</v>
       </c>
       <c r="N24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8585342072726056E-2</v>
       </c>
       <c r="R24">
         <f t="shared" si="0"/>
         <v>257.25448057092223</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>344.53070738709903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>-104.700861804699</v>
       </c>
@@ -1402,15 +1492,19 @@
         <v>17.408210146031401</v>
       </c>
       <c r="N25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14335348942251205</v>
       </c>
       <c r="R25">
         <f t="shared" si="0"/>
         <v>448.62494242023507</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>493.95671528508637</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>-104.700854006905</v>
       </c>
@@ -1445,15 +1539,19 @@
         <v>24.7746123780937</v>
       </c>
       <c r="N26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11933347515207331</v>
       </c>
       <c r="R26">
         <f t="shared" si="0"/>
         <v>342.25288030045482</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>591.76825058411055</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>-104.700857725853</v>
       </c>
@@ -1488,15 +1586,19 @@
         <v>32.4275959151732</v>
       </c>
       <c r="N27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.1097181780972453E-2</v>
       </c>
       <c r="R27">
         <f t="shared" si="0"/>
         <v>347.7121699909784</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>495.01299321700128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>-104.700816937393</v>
       </c>
@@ -1531,15 +1633,19 @@
         <v>41.998460644060401</v>
       </c>
       <c r="N28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3219168671883362E-2</v>
       </c>
       <c r="R28">
         <f t="shared" si="0"/>
         <v>251.04064796859305</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>291.2769453243468</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>-104.70075203575399</v>
       </c>
@@ -1574,15 +1680,19 @@
         <v>19.3705659127566</v>
       </c>
       <c r="N29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2534878101731407</v>
       </c>
       <c r="R29">
         <f t="shared" si="0"/>
         <v>440.22649694134003</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>911.77610790836104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>-104.700810219293</v>
       </c>
@@ -1617,15 +1727,19 @@
         <v>23.4240299226514</v>
       </c>
       <c r="N30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9529739982296681E-2</v>
       </c>
       <c r="R30">
         <f t="shared" si="0"/>
         <v>248.7850221329102</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>667.01722684250205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>-104.700728882305</v>
       </c>
@@ -1660,15 +1774,19 @@
         <v>11.9525826138641</v>
       </c>
       <c r="N31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11243410935098984</v>
       </c>
       <c r="R31">
         <f t="shared" si="0"/>
         <v>378.76228153277572</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T31">
+        <f t="shared" si="1"/>
+        <v>430.44300737106636</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>-104.700775909</v>
       </c>
@@ -1703,15 +1821,19 @@
         <v>25.070478827247399</v>
       </c>
       <c r="N32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.4325582013242376E-2</v>
       </c>
       <c r="R32">
         <f t="shared" si="0"/>
         <v>296.59531766327751</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T32">
+        <f t="shared" si="1"/>
+        <v>484.44337177105695</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>-104.700846089145</v>
       </c>
@@ -1746,15 +1868,19 @@
         <v>12.4126880140496</v>
       </c>
       <c r="N33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.8772375342562869E-2</v>
       </c>
       <c r="R33">
         <f t="shared" si="0"/>
         <v>239.32585321309128</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T33">
+        <f t="shared" si="1"/>
+        <v>357.96729343927626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>-104.700828094236</v>
       </c>
@@ -1789,15 +1915,19 @@
         <v>34.744122046142898</v>
       </c>
       <c r="N34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.21707449066742243</v>
       </c>
       <c r="R34">
         <f t="shared" si="0"/>
         <v>443.30586978015515</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T34">
+        <f t="shared" si="1"/>
+        <v>958.04650422984173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>-104.700759713582</v>
       </c>
@@ -1832,15 +1962,19 @@
         <v>18.391054990519901</v>
       </c>
       <c r="N35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.37231022119180046</v>
       </c>
       <c r="R35">
         <f t="shared" si="0"/>
         <v>555.38914555873805</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T35">
+        <f t="shared" si="1"/>
+        <v>1048.7469882400101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>-104.70076259276701</v>
       </c>
@@ -1875,15 +2009,19 @@
         <v>11.820974102942801</v>
       </c>
       <c r="N36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10246835874942482</v>
       </c>
       <c r="R36">
         <f t="shared" si="0"/>
         <v>354.88128873013994</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T36">
+        <f t="shared" si="1"/>
+        <v>418.06354637773546</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>-104.700748676705</v>
       </c>
@@ -1918,15 +2056,19 @@
         <v>15.705984753173</v>
       </c>
       <c r="N37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12904369368693153</v>
       </c>
       <c r="R37">
         <f t="shared" si="0"/>
         <v>305.48526189928214</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T37">
+        <f t="shared" si="1"/>
+        <v>639.80952356130854</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>-104.70074807687401</v>
       </c>
@@ -1961,15 +2103,19 @@
         <v>19.051768300314201</v>
       </c>
       <c r="N38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.311642047657838E-2</v>
       </c>
       <c r="R38">
         <f t="shared" si="0"/>
         <v>287.43412406643796</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T38">
+        <f t="shared" si="1"/>
+        <v>346.33596048108768</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>-104.700735960302</v>
       </c>
@@ -2004,15 +2150,19 @@
         <v>17.844250621695</v>
       </c>
       <c r="N39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3303453746415193E-2</v>
       </c>
       <c r="R39">
         <f t="shared" si="0"/>
         <v>312.45023963610765</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T39">
+        <f t="shared" si="1"/>
+        <v>414.3287815019126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>-104.700736440166</v>
       </c>
@@ -2047,15 +2197,19 @@
         <v>6.9032700266675304</v>
       </c>
       <c r="N40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26664771160854067</v>
       </c>
       <c r="R40">
         <f t="shared" si="0"/>
         <v>520.11220535295263</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T40">
+        <f t="shared" si="1"/>
+        <v>703.08415008592192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>-104.70066302093799</v>
       </c>
@@ -2090,15 +2244,19 @@
         <v>11.0629894081614</v>
       </c>
       <c r="N41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5484707873809524E-2</v>
       </c>
       <c r="R41">
         <f t="shared" si="0"/>
         <v>250.08288129218221</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T41">
+        <f t="shared" si="1"/>
+        <v>261.09577039912915</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>-104.700749996331</v>
       </c>
@@ -2133,15 +2291,25 @@
         <v>25.373742405561199</v>
       </c>
       <c r="N42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13555976138795478</v>
       </c>
       <c r="R42">
         <f t="shared" si="0"/>
         <v>417.8289251732524</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T42">
+        <f t="shared" si="1"/>
+        <v>555.06206852756475</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -2179,15 +2347,19 @@
         <v>18.8820690299933</v>
       </c>
       <c r="N44">
-        <f t="shared" ref="N44:N90" si="3">H44*$O$5</f>
+        <f t="shared" ref="N44:N90" si="4">H44*$O$5</f>
         <v>0.42993270223418273</v>
       </c>
       <c r="R44">
         <f t="shared" si="0"/>
         <v>687.37170041751176</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T44">
+        <f t="shared" si="1"/>
+        <v>984.44823869102822</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>-104.70071616590199</v>
       </c>
@@ -2222,15 +2394,19 @@
         <v>56.899880447453398</v>
       </c>
       <c r="N45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.98878133212194352</v>
       </c>
       <c r="R45">
         <f t="shared" si="0"/>
         <v>1343.5813825191287</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T45">
+        <f t="shared" si="1"/>
+        <v>2180.0112007964503</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>-104.700722524103</v>
       </c>
@@ -2265,15 +2441,19 @@
         <v>18.976795919711702</v>
       </c>
       <c r="N46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.969175541408507E-2</v>
       </c>
       <c r="R46">
         <f t="shared" si="0"/>
         <v>290.21697318586382</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T46">
+        <f t="shared" si="1"/>
+        <v>486.99132036904922</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>-104.70071832529101</v>
       </c>
@@ -2308,15 +2488,19 @@
         <v>11.8799692675187</v>
       </c>
       <c r="N47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.8192812412279294E-2</v>
       </c>
       <c r="R47">
         <f t="shared" si="0"/>
         <v>300.46835321114594</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T47">
+        <f t="shared" si="1"/>
+        <v>377.04603314135261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>-104.70070476912601</v>
       </c>
@@ -2351,15 +2535,19 @@
         <v>12.408133308583199</v>
       </c>
       <c r="N48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11562826018482478</v>
       </c>
       <c r="R48">
         <f t="shared" si="0"/>
         <v>265.90427980190174</v>
       </c>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T48">
+        <f t="shared" si="1"/>
+        <v>633.83439206230707</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>-104.70065138423</v>
       </c>
@@ -2394,15 +2582,19 @@
         <v>14.402453142377199</v>
       </c>
       <c r="N49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6157787439011504E-2</v>
       </c>
       <c r="R49">
         <f t="shared" si="0"/>
         <v>228.30211749548818</v>
       </c>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T49">
+        <f t="shared" si="1"/>
+        <v>236.22807343609207</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>-104.700709807701</v>
       </c>
@@ -2437,15 +2629,19 @@
         <v>8.3170785078155305</v>
       </c>
       <c r="N50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.6787386045391925E-2</v>
       </c>
       <c r="R50">
         <f t="shared" si="0"/>
         <v>300.01422464244666</v>
       </c>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T50">
+        <f t="shared" si="1"/>
+        <v>356.41872501240732</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>-104.70070500905901</v>
       </c>
@@ -2480,15 +2676,19 @@
         <v>19.613034544112999</v>
       </c>
       <c r="N51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.3082171078143396E-2</v>
       </c>
       <c r="R51">
         <f t="shared" si="0"/>
         <v>258.1307444803918</v>
       </c>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T51">
+        <f t="shared" si="1"/>
+        <v>449.66283126589843</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>-104.70072456352599</v>
       </c>
@@ -2523,15 +2723,19 @@
         <v>12.4290028217453</v>
       </c>
       <c r="N52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17759478636122258</v>
       </c>
       <c r="R52">
         <f t="shared" si="0"/>
         <v>331.67115818116082</v>
       </c>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T52">
+        <f t="shared" si="1"/>
+        <v>780.66215907243463</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>-104.700717725461</v>
       </c>
@@ -2566,15 +2770,19 @@
         <v>21.775271430158899</v>
       </c>
       <c r="N53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0177801709450245E-2</v>
       </c>
       <c r="R53">
         <f t="shared" si="0"/>
         <v>253.24394305756181</v>
       </c>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T53">
+        <f t="shared" si="1"/>
+        <v>387.84134640881138</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>-104.700729002271</v>
       </c>
@@ -2609,15 +2817,19 @@
         <v>46.434015637311298</v>
       </c>
       <c r="N54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.8065046378925904E-2</v>
       </c>
       <c r="R54">
         <f t="shared" si="0"/>
         <v>362.30415685789376</v>
       </c>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T54">
+        <f t="shared" si="1"/>
+        <v>513.56466325907411</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>-104.700722884002</v>
       </c>
@@ -2652,15 +2864,19 @@
         <v>14.7974841548755</v>
       </c>
       <c r="N55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.7843763710654093E-2</v>
       </c>
       <c r="R55">
         <f t="shared" si="0"/>
         <v>286.7525351373406</v>
       </c>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T55">
+        <f t="shared" si="1"/>
+        <v>354.52851107206743</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>-104.70072672291499</v>
       </c>
@@ -2695,15 +2911,19 @@
         <v>15.4402858052888</v>
       </c>
       <c r="N56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1613685001253411</v>
       </c>
       <c r="R56">
         <f t="shared" si="0"/>
         <v>377.45389064327998</v>
       </c>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T56">
+        <f t="shared" si="1"/>
+        <v>645.49408713950641</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>-104.700713046785</v>
       </c>
@@ -2738,15 +2958,19 @@
         <v>24.692468258514602</v>
       </c>
       <c r="N57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.14399231958927902</v>
       </c>
       <c r="R57">
         <f t="shared" si="0"/>
         <v>358.08633791396807</v>
       </c>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T57">
+        <f t="shared" si="1"/>
+        <v>681.73263015380178</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>-104.700718805156</v>
       </c>
@@ -2781,15 +3005,19 @@
         <v>12.4536477181216</v>
       </c>
       <c r="N58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.3337703144850191E-2</v>
       </c>
       <c r="R58">
         <f t="shared" si="0"/>
         <v>283.20892488320931</v>
       </c>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T58">
+        <f t="shared" si="1"/>
+        <v>377.64455923799505</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>-104.700720244748</v>
       </c>
@@ -2824,15 +3052,19 @@
         <v>44.824628186703301</v>
       </c>
       <c r="N59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15101945142371589</v>
       </c>
       <c r="R59">
         <f t="shared" si="0"/>
         <v>378.04473792606342</v>
       </c>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T59">
+        <f t="shared" si="1"/>
+        <v>924.36893363793433</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>-104.700758753854</v>
       </c>
@@ -2867,15 +3099,19 @@
         <v>38.065702546835801</v>
       </c>
       <c r="N60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.19918724599794677</v>
       </c>
       <c r="R60">
         <f t="shared" si="0"/>
         <v>375.78619555827055</v>
       </c>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T60">
+        <f t="shared" si="1"/>
+        <v>1092.6734932327388</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>-104.700707528346</v>
       </c>
@@ -2910,15 +3146,19 @@
         <v>8.0635248209411099</v>
       </c>
       <c r="N61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.42533312503346044</v>
       </c>
       <c r="R61">
         <f t="shared" si="0"/>
         <v>706.67666332909744</v>
       </c>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T61">
+        <f t="shared" si="1"/>
+        <v>835.83687440904441</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>-104.70071508620801</v>
       </c>
@@ -2953,15 +3193,19 @@
         <v>16.276190651540201</v>
       </c>
       <c r="N62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2639605741599788E-2</v>
       </c>
       <c r="R62">
         <f t="shared" si="0"/>
         <v>261.92190403708895</v>
       </c>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T62">
+        <f t="shared" si="1"/>
+        <v>306.47337240391875</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>-104.70070680855</v>
       </c>
@@ -2996,15 +3240,19 @@
         <v>10.228543238888699</v>
       </c>
       <c r="N63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.6217054675494919E-2</v>
       </c>
       <c r="R63">
         <f t="shared" si="0"/>
         <v>233.30000222657813</v>
       </c>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T63">
+        <f t="shared" si="1"/>
+        <v>342.70148895606724</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>-104.700702249839</v>
       </c>
@@ -3039,15 +3287,19 @@
         <v>9.28412843885679</v>
       </c>
       <c r="N64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.6369838546896741E-2</v>
       </c>
       <c r="R64">
         <f t="shared" si="0"/>
         <v>236.89441398596469</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T64">
+        <f t="shared" si="1"/>
+        <v>513.12707291091078</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>-104.70069601160399</v>
       </c>
@@ -3082,15 +3334,19 @@
         <v>6.6753531707526399</v>
       </c>
       <c r="N65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15727998705803237</v>
       </c>
       <c r="R65">
         <f t="shared" si="0"/>
         <v>320.11940155293235</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T65">
+        <f t="shared" si="1"/>
+        <v>672.1497354432363</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>-104.700708488074</v>
       </c>
@@ -3125,15 +3381,19 @@
         <v>21.3654757763404</v>
       </c>
       <c r="N66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.22052417356796417</v>
       </c>
       <c r="R66">
         <f t="shared" si="0"/>
         <v>567.47620225940352</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T66">
+        <f t="shared" si="1"/>
+        <v>630.95183075491207</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>-104.700722524103</v>
       </c>
@@ -3168,15 +3428,19 @@
         <v>46.790535216844297</v>
       </c>
       <c r="N67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.1165680577842436E-2</v>
       </c>
       <c r="R67">
         <f t="shared" si="0"/>
         <v>342.04128245115146</v>
       </c>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T67">
+        <f t="shared" si="1"/>
+        <v>499.23394717529703</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>-104.700698051027</v>
       </c>
@@ -3211,15 +3475,19 @@
         <v>7.1778576290074296</v>
       </c>
       <c r="N68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2172269997578185</v>
       </c>
       <c r="R68">
         <f t="shared" si="0"/>
         <v>1247.9300352717034</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T68">
+        <f t="shared" si="1"/>
+        <v>1341.6235419412649</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>-104.700714246445</v>
       </c>
@@ -3254,15 +3522,19 @@
         <v>7.8625697209266203</v>
       </c>
       <c r="N69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.41357864996494786</v>
       </c>
       <c r="R69">
         <f t="shared" si="0"/>
         <v>688.4067072201691</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T69">
+        <f t="shared" si="1"/>
+        <v>832.4877302243849</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>-104.700687733946</v>
       </c>
@@ -3297,15 +3569,19 @@
         <v>39.511663659673999</v>
       </c>
       <c r="N70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.14999732315688871</v>
       </c>
       <c r="R70">
-        <f t="shared" ref="R70:R133" si="4">S$5*E70</f>
+        <f t="shared" ref="R70:R133" si="5">S$5*E70</f>
         <v>336.05561730415582</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T70">
+        <f t="shared" ref="T70:T133" si="6">D70*S$5</f>
+        <v>942.11003185647223</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>-104.70070045034799</v>
       </c>
@@ -3340,15 +3616,19 @@
         <v>18.456878298543401</v>
       </c>
       <c r="N71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.49509337924441549</v>
       </c>
       <c r="R71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>580.85593480083844</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T71">
+        <f t="shared" si="6"/>
+        <v>1334.5420818424709</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>-104.700689893335</v>
       </c>
@@ -3383,15 +3663,19 @@
         <v>19.696761787320899</v>
       </c>
       <c r="N72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.091014851113564E-2</v>
       </c>
       <c r="R72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>238.01275054872815</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T72">
+        <f t="shared" si="6"/>
+        <v>473.67016633027737</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>-104.700693492317</v>
       </c>
@@ -3426,15 +3710,19 @@
         <v>15.5966022613432</v>
       </c>
       <c r="N73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.9913038082356881E-2</v>
       </c>
       <c r="R73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>238.2182862026026</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T73">
+        <f t="shared" si="6"/>
+        <v>634.43634979549404</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>-104.70070260973699</v>
       </c>
@@ -3469,15 +3757,19 @@
         <v>17.3186476021943</v>
       </c>
       <c r="N74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.6335589148461742E-2</v>
       </c>
       <c r="R74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>286.77694765347127</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T74">
+        <f t="shared" si="6"/>
+        <v>518.72343222739562</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>-104.700693972181</v>
       </c>
@@ -3512,15 +3804,19 @@
         <v>8.8315873666690603</v>
       </c>
       <c r="N75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.155235730524378</v>
       </c>
       <c r="R75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>305.91315417808846</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T75">
+        <f t="shared" si="6"/>
+        <v>710.64067780065227</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>-104.70069025323301</v>
       </c>
@@ -3555,15 +3851,19 @@
         <v>13.2596494488863</v>
       </c>
       <c r="N76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15919647755833333</v>
       </c>
       <c r="R76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>367.07293420997553</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T76">
+        <f t="shared" si="6"/>
+        <v>638.35290118333205</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>-104.70069325238499</v>
       </c>
@@ -3598,15 +3898,19 @@
         <v>32.525505035143297</v>
       </c>
       <c r="N77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15255264382395667</v>
       </c>
       <c r="R77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>428.54071255707566</v>
       </c>
-    </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T77">
+        <f t="shared" si="6"/>
+        <v>673.5796025210667</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>-104.700687853912</v>
       </c>
@@ -3641,15 +3945,19 @@
         <v>9.8013889387415905</v>
       </c>
       <c r="N78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.4266314776758968E-2</v>
       </c>
       <c r="R78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>290.82691009760765</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T78">
+        <f t="shared" si="6"/>
+        <v>312.78785109157445</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>-104.70063194972801</v>
       </c>
@@ -3684,15 +3992,19 @@
         <v>27.901689369845698</v>
       </c>
       <c r="N79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.2885906247920008E-2</v>
       </c>
       <c r="R79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>313.53738607531812</v>
       </c>
-    </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T79">
+        <f t="shared" si="6"/>
+        <v>524.60970354886831</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>-104.70066841940999</v>
       </c>
@@ -3727,15 +4039,19 @@
         <v>12.4503040831669</v>
       </c>
       <c r="N80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23726152393725924</v>
       </c>
       <c r="R80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>492.08417416472236</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T80">
+        <f t="shared" si="6"/>
+        <v>703.12767861486464</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>-104.700661581345</v>
       </c>
@@ -3770,15 +4086,19 @@
         <v>40.029139481865599</v>
       </c>
       <c r="N81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2437775916382825</v>
       </c>
       <c r="R81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>492.03050147725634</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T81">
+        <f t="shared" si="6"/>
+        <v>1054.7812337108903</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>-104.70068413496401</v>
       </c>
@@ -3813,15 +4133,19 @@
         <v>32.726802945553203</v>
       </c>
       <c r="N82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.30689401211486089</v>
       </c>
       <c r="R82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>587.02115784224975</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T82">
+        <f t="shared" si="6"/>
+        <v>992.18695226404475</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>-104.700684374896</v>
       </c>
@@ -3856,15 +4180,19 @@
         <v>17.090564328558699</v>
       </c>
       <c r="N83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.77055694715434053</v>
       </c>
       <c r="R83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>766.2525645254027</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T83">
+        <f t="shared" si="6"/>
+        <v>1548.5661394082024</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>-104.700664700462</v>
       </c>
@@ -3899,15 +4227,19 @@
         <v>41.409500889034298</v>
       </c>
       <c r="N84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21273044553340689</v>
       </c>
       <c r="R84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>355.08449008597677</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T84">
+        <f t="shared" si="6"/>
+        <v>1305.4843436259416</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>-104.70069145289401</v>
       </c>
@@ -3942,15 +4274,19 @@
         <v>37.140078256172899</v>
       </c>
       <c r="N85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.47733390060829323</v>
       </c>
       <c r="R85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>963.13644086601619</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T85">
+        <f t="shared" si="6"/>
+        <v>1006.6107105967973</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>-104.70073020193099</v>
       </c>
@@ -3985,15 +4321,19 @@
         <v>30.218919463213599</v>
       </c>
       <c r="N86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0084285074531838E-2</v>
       </c>
       <c r="R86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>226.11534238681267</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T86">
+        <f t="shared" si="6"/>
+        <v>405.2608736750804</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>-104.700650184569</v>
       </c>
@@ -4028,15 +4368,19 @@
         <v>21.055990084626799</v>
       </c>
       <c r="N87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.34330733162057919</v>
       </c>
       <c r="R87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>548.56286697440407</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T87">
+        <f t="shared" si="6"/>
+        <v>1012.1349188611166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>-104.70069817099299</v>
       </c>
@@ -4071,15 +4415,19 @@
         <v>12.9648042828575</v>
       </c>
       <c r="N88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.096385075262547</v>
       </c>
       <c r="R88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1102.6774785244563</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T88">
+        <f t="shared" si="6"/>
+        <v>2788.8718786208765</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>-104.700635188812</v>
       </c>
@@ -4114,15 +4462,19 @@
         <v>21.3676911273398</v>
       </c>
       <c r="N89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.68546476894097785</v>
       </c>
       <c r="R89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>868.65406291554643</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T89">
+        <f t="shared" si="6"/>
+        <v>1281.2626714850248</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>-104.700713166751</v>
       </c>
@@ -4157,15 +4509,25 @@
         <v>9.6731037241275306</v>
       </c>
       <c r="N90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.1770261346174433E-2</v>
       </c>
       <c r="R90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>313.85592644498058</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T90">
+        <f t="shared" si="6"/>
+        <v>368.25519578450485</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T91">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>41</v>
       </c>
@@ -4203,15 +4565,19 @@
         <v>10.2685182326438</v>
       </c>
       <c r="N92">
-        <f t="shared" ref="N92:N112" si="5">H92*$O$5</f>
+        <f t="shared" ref="N92:N112" si="7">H92*$O$5</f>
         <v>6.2733122376518194E-2</v>
       </c>
       <c r="R92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>261.02647177053569</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T92">
+        <f t="shared" si="6"/>
+        <v>341.95458404782966</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>-104.70065270385599</v>
       </c>
@@ -4246,15 +4612,19 @@
         <v>7.2172667168334703</v>
       </c>
       <c r="N93">
+        <f t="shared" si="7"/>
+        <v>0.12188879581914125</v>
+      </c>
+      <c r="R93">
         <f t="shared" si="5"/>
-        <v>0.12188879581914125</v>
-      </c>
-      <c r="R93">
-        <f t="shared" si="4"/>
         <v>367.00104568864936</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T93">
+        <f t="shared" si="6"/>
+        <v>457.01477557292554</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>-104.70066446053001</v>
       </c>
@@ -4289,15 +4659,19 @@
         <v>17.859592050355499</v>
       </c>
       <c r="N94">
+        <f t="shared" si="7"/>
+        <v>7.9981536879226864E-2</v>
+      </c>
+      <c r="R94">
         <f t="shared" si="5"/>
-        <v>7.9981536879226864E-2</v>
-      </c>
-      <c r="R94">
-        <f t="shared" si="4"/>
         <v>236.19234171546213</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T94">
+        <f t="shared" si="6"/>
+        <v>526.34196357387509</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>-104.700646705553</v>
       </c>
@@ -4332,15 +4706,19 @@
         <v>32.611292800124197</v>
       </c>
       <c r="N95">
+        <f t="shared" si="7"/>
+        <v>0.84095603153206266</v>
+      </c>
+      <c r="R95">
         <f t="shared" si="5"/>
-        <v>0.84095603153206266</v>
-      </c>
-      <c r="R95">
-        <f t="shared" si="4"/>
         <v>1004.0268566372849</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T95">
+        <f t="shared" si="6"/>
+        <v>1586.8714759462366</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>-104.700635668676</v>
       </c>
@@ -4375,15 +4753,19 @@
         <v>35.130335739979003</v>
       </c>
       <c r="N96">
+        <f t="shared" si="7"/>
+        <v>0.32669774728463752</v>
+      </c>
+      <c r="R96">
         <f t="shared" si="5"/>
-        <v>0.32669774728463752</v>
-      </c>
-      <c r="R96">
-        <f t="shared" si="4"/>
         <v>687.47114931154022</v>
       </c>
-    </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T96">
+        <f t="shared" si="6"/>
+        <v>935.29999331309955</v>
+      </c>
+    </row>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>-104.70064718541801</v>
       </c>
@@ -4418,15 +4800,19 @@
         <v>8.3431869411825996</v>
       </c>
       <c r="N97">
+        <f t="shared" si="7"/>
+        <v>0.2074920381659176</v>
+      </c>
+      <c r="R97">
         <f t="shared" si="5"/>
-        <v>0.2074920381659176</v>
-      </c>
-      <c r="R97">
-        <f t="shared" si="4"/>
         <v>493.17021307995572</v>
       </c>
-    </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T97">
+        <f t="shared" si="6"/>
+        <v>586.0582244704317</v>
+      </c>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>-104.700629670373</v>
       </c>
@@ -4461,15 +4847,19 @@
         <v>16.858243486496299</v>
       </c>
       <c r="N98">
+        <f t="shared" si="7"/>
+        <v>0.14514221388945961</v>
+      </c>
+      <c r="R98">
         <f t="shared" si="5"/>
-        <v>0.14514221388945961</v>
-      </c>
-      <c r="R98">
-        <f t="shared" si="4"/>
         <v>344.46713914515141</v>
       </c>
-    </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T98">
+        <f t="shared" si="6"/>
+        <v>647.03484308301995</v>
+      </c>
+    </row>
+    <row r="99" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>-104.70063554871</v>
       </c>
@@ -4504,15 +4894,19 @@
         <v>12.4384143207555</v>
       </c>
       <c r="N99">
+        <f t="shared" si="7"/>
+        <v>0.19854841583117977</v>
+      </c>
+      <c r="R99">
         <f t="shared" si="5"/>
-        <v>0.19854841583117977</v>
-      </c>
-      <c r="R99">
-        <f t="shared" si="4"/>
         <v>502.75396325439897</v>
       </c>
-    </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T99">
+        <f t="shared" si="6"/>
+        <v>575.8352201763006</v>
+      </c>
+    </row>
+    <row r="100" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>-104.700642386775</v>
       </c>
@@ -4547,15 +4941,19 @@
         <v>34.5726789843497</v>
       </c>
       <c r="N100">
+        <f t="shared" si="7"/>
+        <v>7.9214940679106477E-2</v>
+      </c>
+      <c r="R100">
         <f t="shared" si="5"/>
-        <v>7.9214940679106477E-2</v>
-      </c>
-      <c r="R100">
-        <f t="shared" si="4"/>
         <v>258.00633249366206</v>
       </c>
-    </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T100">
+        <f t="shared" si="6"/>
+        <v>599.12648240505132</v>
+      </c>
+    </row>
+    <row r="101" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B101">
         <v>-104.700641187115</v>
       </c>
@@ -4590,15 +4988,19 @@
         <v>16.322805549627802</v>
       </c>
       <c r="N101">
+        <f t="shared" si="7"/>
+        <v>0.17158978279361289</v>
+      </c>
+      <c r="R101">
         <f t="shared" si="5"/>
-        <v>0.17158978279361289</v>
-      </c>
-      <c r="R101">
-        <f t="shared" si="4"/>
         <v>399.7534067944315</v>
       </c>
-    </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T101">
+        <f t="shared" si="6"/>
+        <v>654.92724724207505</v>
+      </c>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B102">
         <v>-104.700646225689</v>
       </c>
@@ -4633,15 +5035,19 @@
         <v>9.9821510421330704</v>
       </c>
       <c r="N102">
+        <f t="shared" si="7"/>
+        <v>0.15510796449102462</v>
+      </c>
+      <c r="R102">
         <f t="shared" si="5"/>
-        <v>0.15510796449102462</v>
-      </c>
-      <c r="R102">
-        <f t="shared" si="4"/>
         <v>298.1667104829038</v>
       </c>
-    </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T102">
+        <f t="shared" si="6"/>
+        <v>737.81457867000654</v>
+      </c>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B103">
         <v>-104.70063638847201</v>
       </c>
@@ -4676,15 +5082,19 @@
         <v>23.645005435146199</v>
       </c>
       <c r="N103">
+        <f t="shared" si="7"/>
+        <v>7.5381959678504543E-2</v>
+      </c>
+      <c r="R103">
         <f t="shared" si="5"/>
-        <v>7.5381959678504543E-2</v>
-      </c>
-      <c r="R103">
-        <f t="shared" si="4"/>
         <v>256.2074684939945</v>
       </c>
-    </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T103">
+        <f t="shared" si="6"/>
+        <v>491.97055013975876</v>
+      </c>
+    </row>
+    <row r="104" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B104">
         <v>-104.70064742535</v>
       </c>
@@ -4719,15 +5129,19 @@
         <v>28.0890045300814</v>
       </c>
       <c r="N104">
+        <f t="shared" si="7"/>
+        <v>0.36783841002443152</v>
+      </c>
+      <c r="R104">
         <f t="shared" si="5"/>
-        <v>0.36783841002443152</v>
-      </c>
-      <c r="R104">
-        <f t="shared" si="4"/>
         <v>682.85840054757796</v>
       </c>
-    </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T104">
+        <f t="shared" si="6"/>
+        <v>956.38341918220829</v>
+      </c>
+    </row>
+    <row r="105" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B105">
         <v>-104.70063710826901</v>
       </c>
@@ -4762,15 +5176,19 @@
         <v>10.0692879535773</v>
       </c>
       <c r="N105">
+        <f t="shared" si="7"/>
+        <v>0.12636060698651017</v>
+      </c>
+      <c r="R105">
         <f t="shared" si="5"/>
-        <v>0.12636060698651017</v>
-      </c>
-      <c r="R105">
-        <f t="shared" si="4"/>
         <v>263.03381750842766</v>
       </c>
-    </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T105">
+        <f t="shared" si="6"/>
+        <v>682.01354817190304</v>
+      </c>
+    </row>
+    <row r="106" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B106">
         <v>-104.70064478609601</v>
       </c>
@@ -4805,15 +5223,19 @@
         <v>42.645186983445001</v>
       </c>
       <c r="N106">
+        <f t="shared" si="7"/>
+        <v>4.7145666307403696E-2</v>
+      </c>
+      <c r="R106">
         <f t="shared" si="5"/>
-        <v>4.7145666307403696E-2</v>
-      </c>
-      <c r="R106">
-        <f t="shared" si="4"/>
         <v>239.38852481593776</v>
       </c>
-    </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T106">
+        <f t="shared" si="6"/>
+        <v>438.39894458080465</v>
+      </c>
+    </row>
+    <row r="107" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B107">
         <v>-104.700630390169</v>
       </c>
@@ -4848,15 +5270,19 @@
         <v>13.6420926777066</v>
       </c>
       <c r="N107">
+        <f t="shared" si="7"/>
+        <v>5.1361945408065809E-2</v>
+      </c>
+      <c r="R107">
         <f t="shared" si="5"/>
-        <v>5.1361945408065809E-2</v>
-      </c>
-      <c r="R107">
-        <f t="shared" si="4"/>
         <v>226.81516140127295</v>
       </c>
-    </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T107">
+        <f t="shared" si="6"/>
+        <v>334.78669681790109</v>
+      </c>
+    </row>
+    <row r="108" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B108">
         <v>-104.70063686833601</v>
       </c>
@@ -4891,15 +5317,19 @@
         <v>21.048667183890299</v>
       </c>
       <c r="N108">
+        <f t="shared" si="7"/>
+        <v>7.2571106944729805E-2</v>
+      </c>
+      <c r="R108">
         <f t="shared" si="5"/>
-        <v>7.2571106944729805E-2</v>
-      </c>
-      <c r="R108">
-        <f t="shared" si="4"/>
         <v>239.61274127659553</v>
       </c>
-    </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T108">
+        <f t="shared" si="6"/>
+        <v>489.77351057531024</v>
+      </c>
+    </row>
+    <row r="109" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B109">
         <v>-104.70063278949</v>
       </c>
@@ -4934,15 +5364,19 @@
         <v>20.1174354390586</v>
       </c>
       <c r="N109">
+        <f t="shared" si="7"/>
+        <v>9.1097181780972453E-2</v>
+      </c>
+      <c r="R109">
         <f t="shared" si="5"/>
-        <v>9.1097181780972453E-2</v>
-      </c>
-      <c r="R109">
-        <f t="shared" si="4"/>
         <v>230.29336018685387</v>
       </c>
-    </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T109">
+        <f t="shared" si="6"/>
+        <v>632.22613494168002</v>
+      </c>
+    </row>
+    <row r="110" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B110">
         <v>-104.700638787793</v>
       </c>
@@ -4977,15 +5411,19 @@
         <v>18.557920538064</v>
       </c>
       <c r="N110">
+        <f t="shared" si="7"/>
+        <v>0.15676892292461878</v>
+      </c>
+      <c r="R110">
         <f t="shared" si="5"/>
-        <v>0.15676892292461878</v>
-      </c>
-      <c r="R110">
-        <f t="shared" si="4"/>
         <v>300.47893756806252</v>
       </c>
-    </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T110">
+        <f t="shared" si="6"/>
+        <v>817.89584936980839</v>
+      </c>
+    </row>
+    <row r="111" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B111">
         <v>-104.700648984908</v>
       </c>
@@ -5020,15 +5458,19 @@
         <v>16.334375458605798</v>
       </c>
       <c r="N111">
+        <f t="shared" si="7"/>
+        <v>9.1352713847679248E-2</v>
+      </c>
+      <c r="R111">
         <f t="shared" si="5"/>
-        <v>9.1352713847679248E-2</v>
-      </c>
-      <c r="R111">
-        <f t="shared" si="4"/>
         <v>347.86977728173815</v>
       </c>
-    </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T111">
+        <f t="shared" si="6"/>
+        <v>400.73623712737628</v>
+      </c>
+    </row>
+    <row r="112" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B112">
         <v>-104.700646705553</v>
       </c>
@@ -5063,15 +5505,25 @@
         <v>21.589586637581199</v>
       </c>
       <c r="N112">
+        <f t="shared" si="7"/>
+        <v>7.8831642579046277E-2</v>
+      </c>
+      <c r="R112">
         <f t="shared" si="5"/>
-        <v>7.8831642579046277E-2</v>
-      </c>
-      <c r="R112">
-        <f t="shared" si="4"/>
         <v>269.07589688241671</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T112">
+        <f t="shared" si="6"/>
+        <v>477.03797704727299</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T113">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>42</v>
       </c>
@@ -5109,15 +5561,19 @@
         <v>20.620836332571699</v>
       </c>
       <c r="N114">
-        <f t="shared" ref="N114:N124" si="6">H114*$O$5</f>
+        <f t="shared" ref="N114:N124" si="8">H114*$O$5</f>
         <v>5.8644609309209471E-2</v>
       </c>
       <c r="R114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>239.18349317450807</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T114">
+        <f t="shared" si="6"/>
+        <v>394.35857884296519</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B115">
         <v>-104.70061815363501</v>
       </c>
@@ -5152,15 +5608,19 @@
         <v>31.491150733264199</v>
       </c>
       <c r="N115">
+        <f t="shared" si="8"/>
+        <v>8.9052925247318088E-2</v>
+      </c>
+      <c r="R115">
+        <f t="shared" si="5"/>
+        <v>335.50124521699155</v>
+      </c>
+      <c r="T115">
         <f t="shared" si="6"/>
-        <v>8.9052925247318088E-2</v>
-      </c>
-      <c r="R115">
-        <f t="shared" si="4"/>
-        <v>335.50124521699155</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+        <v>494.6617156334205</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B116">
         <v>-104.700622832311</v>
       </c>
@@ -5195,15 +5655,19 @@
         <v>27.424447735844399</v>
       </c>
       <c r="N116">
+        <f t="shared" si="8"/>
+        <v>0.18474968422901283</v>
+      </c>
+      <c r="R116">
+        <f t="shared" si="5"/>
+        <v>267.64334584006048</v>
+      </c>
+      <c r="T116">
         <f t="shared" si="6"/>
-        <v>0.18474968422901283</v>
-      </c>
-      <c r="R116">
-        <f t="shared" si="4"/>
-        <v>267.64334584006048</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1214.3330740452766</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B117">
         <v>-104.70062259237901</v>
       </c>
@@ -5238,15 +5702,19 @@
         <v>37.689173136401699</v>
       </c>
       <c r="N117">
+        <f t="shared" si="8"/>
+        <v>4.3695983406861962E-2</v>
+      </c>
+      <c r="R117">
+        <f t="shared" si="5"/>
+        <v>243.40183293369847</v>
+      </c>
+      <c r="T117">
         <f t="shared" si="6"/>
-        <v>4.3695983406861962E-2</v>
-      </c>
-      <c r="R117">
-        <f t="shared" si="4"/>
-        <v>243.40183293369847</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+        <v>367.83671704517997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B118">
         <v>-104.700614074789</v>
       </c>
@@ -5281,15 +5749,19 @@
         <v>30.219469018984199</v>
       </c>
       <c r="N118">
+        <f t="shared" si="8"/>
+        <v>6.528844304358615E-2</v>
+      </c>
+      <c r="R118">
+        <f t="shared" si="5"/>
+        <v>297.27008563363285</v>
+      </c>
+      <c r="T118">
         <f t="shared" si="6"/>
-        <v>6.528844304358615E-2</v>
-      </c>
-      <c r="R118">
-        <f t="shared" si="4"/>
-        <v>297.27008563363285</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+        <v>401.8386930257771</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B119">
         <v>-104.700588282086</v>
       </c>
@@ -5324,15 +5796,19 @@
         <v>46.027294741133403</v>
       </c>
       <c r="N119">
+        <f t="shared" si="8"/>
+        <v>0.1299380559204053</v>
+      </c>
+      <c r="R119">
+        <f t="shared" si="5"/>
+        <v>438.18734536125669</v>
+      </c>
+      <c r="T119">
         <f t="shared" si="6"/>
-        <v>0.1299380559204053</v>
-      </c>
-      <c r="R119">
-        <f t="shared" si="4"/>
-        <v>438.18734536125669</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+        <v>701.46057294168565</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B120">
         <v>-104.70060423757199</v>
       </c>
@@ -5367,15 +5843,19 @@
         <v>34.523465960935603</v>
       </c>
       <c r="N120">
+        <f t="shared" si="8"/>
+        <v>2.4321542109152756</v>
+      </c>
+      <c r="R120">
+        <f t="shared" si="5"/>
+        <v>1476.6243003302511</v>
+      </c>
+      <c r="T120">
         <f t="shared" si="6"/>
-        <v>2.4321542109152756</v>
-      </c>
-      <c r="R120">
-        <f t="shared" si="4"/>
-        <v>1476.6243003302511</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+        <v>3211.7100686816993</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B121">
         <v>-104.700594400355</v>
       </c>
@@ -5410,15 +5890,19 @@
         <v>22.0047305062457</v>
       </c>
       <c r="N121">
+        <f t="shared" si="8"/>
+        <v>0.30536081971462015</v>
+      </c>
+      <c r="R121">
+        <f t="shared" si="5"/>
+        <v>474.19906327429726</v>
+      </c>
+      <c r="T121">
         <f t="shared" si="6"/>
-        <v>0.30536081971462015</v>
-      </c>
-      <c r="R121">
-        <f t="shared" si="4"/>
-        <v>474.19906327429726</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1054.1084062004952</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B122">
         <v>-104.700581803918</v>
       </c>
@@ -5453,15 +5937,19 @@
         <v>19.441946909961199</v>
       </c>
       <c r="N122">
+        <f t="shared" si="8"/>
+        <v>8.8030796980490905E-2</v>
+      </c>
+      <c r="R122">
+        <f t="shared" si="5"/>
+        <v>296.34371948584453</v>
+      </c>
+      <c r="T122">
         <f t="shared" si="6"/>
-        <v>8.8030796980490905E-2</v>
-      </c>
-      <c r="R122">
-        <f t="shared" si="4"/>
-        <v>296.34371948584453</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+        <v>470.79393907768673</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B123">
         <v>-104.70058504300199</v>
       </c>
@@ -5496,15 +5984,19 @@
         <v>24.421038105588799</v>
       </c>
       <c r="N123">
+        <f t="shared" si="8"/>
+        <v>0.27801888857699303</v>
+      </c>
+      <c r="R123">
+        <f t="shared" si="5"/>
+        <v>531.31957839709469</v>
+      </c>
+      <c r="T123">
         <f t="shared" si="6"/>
-        <v>0.27801888857699303</v>
-      </c>
-      <c r="R123">
-        <f t="shared" si="4"/>
-        <v>531.31957839709469</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+        <v>883.93123329985372</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B124">
         <v>-104.700545454202</v>
       </c>
@@ -5539,15 +6031,25 @@
         <v>26.107189356333201</v>
       </c>
       <c r="N124">
+        <f t="shared" si="8"/>
+        <v>4.1523960839854199E-2</v>
+      </c>
+      <c r="R124">
+        <f t="shared" si="5"/>
+        <v>228.44638897240768</v>
+      </c>
+      <c r="T124">
         <f t="shared" si="6"/>
-        <v>4.1523960839854199E-2</v>
-      </c>
-      <c r="R124">
-        <f t="shared" si="4"/>
-        <v>228.44638897240768</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+        <v>314.06042052417774</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T125">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>43</v>
       </c>
@@ -5585,15 +6087,19 @@
         <v>13.9193914415946</v>
       </c>
       <c r="N126">
-        <f t="shared" ref="N126:N157" si="7">H126*$O$5</f>
+        <f t="shared" ref="N126:N157" si="9">H126*$O$5</f>
         <v>4.8423326640937667E-2</v>
       </c>
       <c r="R126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>232.04712677906952</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T126">
+        <f t="shared" si="6"/>
+        <v>309.50952340932901</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B127">
         <v>-104.700583963307</v>
       </c>
@@ -5628,15 +6134,19 @@
         <v>34.861417909658996</v>
       </c>
       <c r="N127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.3337703144850191E-2</v>
       </c>
       <c r="R127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>310.23210929493763</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T127">
+        <f t="shared" si="6"/>
+        <v>463.34360834633031</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B128">
         <v>-104.700595959913</v>
       </c>
@@ -5671,15 +6181,19 @@
         <v>7.7071593189992598</v>
       </c>
       <c r="N128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.1450144478561062</v>
       </c>
       <c r="R128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>339.49922430329917</v>
       </c>
-    </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T128">
+        <f t="shared" si="6"/>
+        <v>590.88830224187348</v>
+      </c>
+    </row>
+    <row r="129" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B129">
         <v>-104.70061431472099</v>
       </c>
@@ -5714,15 +6228,19 @@
         <v>11.7467599216385</v>
       </c>
       <c r="N129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.32414242661756953</v>
       </c>
       <c r="R129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>606.00435345990581</v>
       </c>
-    </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T129">
+        <f t="shared" si="6"/>
+        <v>773.8029745749011</v>
+      </c>
+    </row>
+    <row r="130" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B130">
         <v>-104.70060027869199</v>
       </c>
@@ -5757,15 +6275,19 @@
         <v>10.095195813925001</v>
       </c>
       <c r="N130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.3209937111496787E-2</v>
       </c>
       <c r="R130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>263.37666046833857</v>
       </c>
-    </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T130">
+        <f t="shared" si="6"/>
+        <v>394.73966332094193</v>
+      </c>
+    </row>
+    <row r="131" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B131">
         <v>-104.70061815363501</v>
       </c>
@@ -5800,15 +6322,19 @@
         <v>13.1364591120504</v>
       </c>
       <c r="N131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.1037460190829588</v>
       </c>
       <c r="R131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>313.70735600578928</v>
       </c>
-    </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T131">
+        <f t="shared" si="6"/>
+        <v>486.08265963007909</v>
+      </c>
+    </row>
+    <row r="132" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B132">
         <v>-104.70055349192801</v>
       </c>
@@ -5843,15 +6369,19 @@
         <v>23.9674506238755</v>
       </c>
       <c r="N132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.11997230531884029</v>
       </c>
       <c r="R132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>315.92619494665161</v>
       </c>
-    </row>
-    <row r="133" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T132">
+        <f t="shared" si="6"/>
+        <v>637.67109796254408</v>
+      </c>
+    </row>
+    <row r="133" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B133">
         <v>-104.700549892946</v>
       </c>
@@ -5886,15 +6416,19 @@
         <v>20.379819065209301</v>
       </c>
       <c r="N133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.12763826732004413</v>
       </c>
       <c r="R133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>341.84791608124806</v>
       </c>
-    </row>
-    <row r="134" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T133">
+        <f t="shared" si="6"/>
+        <v>598.7226965382489</v>
+      </c>
+    </row>
+    <row r="134" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B134">
         <v>-104.700591881067</v>
       </c>
@@ -5929,15 +6463,19 @@
         <v>10.3381441233213</v>
       </c>
       <c r="N134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.1463168512466828</v>
       </c>
       <c r="R134">
-        <f t="shared" ref="R134:R197" si="8">S$5*E134</f>
+        <f t="shared" ref="R134:R197" si="10">S$5*E134</f>
         <v>930.71826163597405</v>
       </c>
-    </row>
-    <row r="135" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T134">
+        <f t="shared" ref="T134:T197" si="11">D134*S$5</f>
+        <v>1753.7982654707787</v>
+      </c>
+    </row>
+    <row r="135" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B135">
         <v>-104.700544854372</v>
       </c>
@@ -5972,15 +6510,19 @@
         <v>14.130091833058801</v>
       </c>
       <c r="N135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.9853770845873459E-2</v>
       </c>
       <c r="R135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>280.28013205788011</v>
       </c>
-    </row>
-    <row r="136" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T135">
+        <f t="shared" si="11"/>
+        <v>423.6069101389906</v>
+      </c>
+    </row>
+    <row r="136" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B136">
         <v>-104.700545334236</v>
       </c>
@@ -6015,15 +6557,19 @@
         <v>12.5148775710168</v>
       </c>
       <c r="N136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.2860888409871585E-2</v>
       </c>
       <c r="R136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>240.26873840588846</v>
       </c>
-    </row>
-    <row r="137" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T136">
+        <f t="shared" si="11"/>
+        <v>381.81234076734785</v>
+      </c>
+    </row>
+    <row r="137" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B137">
         <v>-104.700598119303</v>
       </c>
@@ -6058,15 +6604,19 @@
         <v>17.052932958869199</v>
       </c>
       <c r="N137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.6333362273327916</v>
       </c>
       <c r="R137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>744.61562230952291</v>
       </c>
-    </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T137">
+        <f t="shared" si="11"/>
+        <v>1309.1881677159693</v>
+      </c>
+    </row>
+    <row r="138" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B138">
         <v>-104.700614554653</v>
       </c>
@@ -6101,15 +6651,19 @@
         <v>14.9530734099501</v>
       </c>
       <c r="N138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.19075468779662252</v>
       </c>
       <c r="R138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>321.08932591556453</v>
       </c>
-    </row>
-    <row r="139" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T138">
+        <f t="shared" si="11"/>
+        <v>891.84964968695817</v>
+      </c>
+    </row>
+    <row r="139" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B139">
         <v>-104.700605917096</v>
       </c>
@@ -6144,15 +6698,19 @@
         <v>9.9490902711018698</v>
       </c>
       <c r="N139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.528844304358615E-2</v>
       </c>
       <c r="R139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>226.71408673437605</v>
       </c>
-    </row>
-    <row r="140" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T139">
+        <f t="shared" si="11"/>
+        <v>408.29176494583101</v>
+      </c>
+    </row>
+    <row r="140" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B140">
         <v>-104.700617793736</v>
       </c>
@@ -6187,15 +6745,19 @@
         <v>20.914110903979601</v>
       </c>
       <c r="N140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.16967329229331193</v>
       </c>
       <c r="R140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>382.42987357967201</v>
       </c>
-    </row>
-    <row r="141" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T140">
+        <f t="shared" si="11"/>
+        <v>716.2482835890354</v>
+      </c>
+    </row>
+    <row r="141" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B141">
         <v>-104.700614434687</v>
       </c>
@@ -6230,15 +6792,19 @@
         <v>20.1623200866198</v>
       </c>
       <c r="N141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.0143552311015253E-2</v>
       </c>
       <c r="R141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>243.15369087651996</v>
       </c>
-    </row>
-    <row r="142" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T141">
+        <f t="shared" si="11"/>
+        <v>461.31746932875654</v>
+      </c>
+    </row>
+    <row r="142" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B142">
         <v>-104.70058936178</v>
       </c>
@@ -6273,15 +6839,19 @@
         <v>5.7700636869926001</v>
       </c>
       <c r="N142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.22461268663527287</v>
       </c>
       <c r="R142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>445.36394648668841</v>
       </c>
-    </row>
-    <row r="143" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T142">
+        <f t="shared" si="11"/>
+        <v>683.33119443868645</v>
+      </c>
+    </row>
+    <row r="143" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B143">
         <v>-104.70061479458499</v>
       </c>
@@ -6316,15 +6886,19 @@
         <v>14.3469861120084</v>
       </c>
       <c r="N143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.13607082552136837</v>
       </c>
       <c r="R143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>335.73151638051462</v>
       </c>
-    </row>
-    <row r="144" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T143">
+        <f t="shared" si="11"/>
+        <v>604.13107747191145</v>
+      </c>
+    </row>
+    <row r="144" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B144">
         <v>-104.700551932369</v>
       </c>
@@ -6359,15 +6933,19 @@
         <v>39.349852856214397</v>
       </c>
       <c r="N144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.50838104671316886</v>
       </c>
       <c r="R144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>913.52025507759151</v>
       </c>
-    </row>
-    <row r="145" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T144">
+        <f t="shared" si="11"/>
+        <v>1171.4944342311853</v>
+      </c>
+    </row>
+    <row r="145" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B145">
         <v>-104.700612755162</v>
       </c>
@@ -6402,15 +6980,19 @@
         <v>25.027926350480101</v>
       </c>
       <c r="N145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.7391966813723923E-2</v>
       </c>
       <c r="R145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>269.60048950103851</v>
       </c>
-    </row>
-    <row r="146" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T145">
+        <f t="shared" si="11"/>
+        <v>552.01672058048382</v>
+      </c>
+    </row>
+    <row r="146" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B146">
         <v>-104.700603157877</v>
       </c>
@@ -6445,15 +7027,19 @@
         <v>11.965113102915399</v>
       </c>
       <c r="N146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.10642910578338015</v>
       </c>
       <c r="R146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>340.87379649053298</v>
       </c>
-    </row>
-    <row r="147" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T146">
+        <f t="shared" si="11"/>
+        <v>452.80676193472681</v>
+      </c>
+    </row>
+    <row r="147" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B147">
         <v>-104.700533697528</v>
       </c>
@@ -6488,15 +7074,19 @@
         <v>33.826124839346498</v>
       </c>
       <c r="N147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.42878280793400214</v>
       </c>
       <c r="R147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>655.20654482300745</v>
       </c>
-    </row>
-    <row r="148" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T147">
+        <f t="shared" si="11"/>
+        <v>1262.6223946218172</v>
+      </c>
+    </row>
+    <row r="148" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B148">
         <v>-104.700591041305</v>
       </c>
@@ -6531,15 +7121,19 @@
         <v>39.229252283562602</v>
       </c>
       <c r="N148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.8959408612399681E-2</v>
       </c>
       <c r="R148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>308.96327635575062</v>
       </c>
-    </row>
-    <row r="149" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T148">
+        <f t="shared" si="11"/>
+        <v>536.91231312728542</v>
+      </c>
+    </row>
+    <row r="149" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B149">
         <v>-104.700616234178</v>
       </c>
@@ -6574,15 +7168,19 @@
         <v>6.4679351002346497</v>
       </c>
       <c r="N149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.20723650609921082</v>
       </c>
       <c r="R149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>405.33576950262795</v>
       </c>
-    </row>
-    <row r="150" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T149">
+        <f t="shared" si="11"/>
+        <v>697.8976366144276</v>
+      </c>
+    </row>
+    <row r="150" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B150">
         <v>-104.700587922187</v>
       </c>
@@ -6617,15 +7215,19 @@
         <v>35.634716912846301</v>
       </c>
       <c r="N150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.5824525015048151E-2</v>
       </c>
       <c r="R150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>318.54874573802499</v>
       </c>
-    </row>
-    <row r="151" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T150">
+        <f t="shared" si="11"/>
+        <v>596.69171920665167</v>
+      </c>
+    </row>
+    <row r="151" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B151">
         <v>-104.700605437232</v>
       </c>
@@ -6660,15 +7262,19 @@
         <v>13.429654861211599</v>
       </c>
       <c r="N151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.24403312370498931</v>
       </c>
       <c r="R151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>444.47290454836349</v>
       </c>
-    </row>
-    <row r="152" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T151">
+        <f t="shared" si="11"/>
+        <v>809.72072940652595</v>
+      </c>
+    </row>
+    <row r="152" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B152">
         <v>-104.70059416042299</v>
       </c>
@@ -6703,15 +7309,19 @@
         <v>15.7156169539959</v>
       </c>
       <c r="N152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.1736011947739435E-2</v>
       </c>
       <c r="R152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>284.76210678080236</v>
       </c>
-    </row>
-    <row r="153" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T152">
+        <f t="shared" si="11"/>
+        <v>487.99060991876064</v>
+      </c>
+    </row>
+    <row r="153" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B153">
         <v>-104.70053453729101</v>
       </c>
@@ -6746,15 +7356,19 @@
         <v>20.230868835923101</v>
       </c>
       <c r="N153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.6753136646956927E-2</v>
       </c>
       <c r="R153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>257.77633108013487</v>
       </c>
-    </row>
-    <row r="154" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T153">
+        <f t="shared" si="11"/>
+        <v>538.65191094538773</v>
+      </c>
+    </row>
+    <row r="154" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B154">
         <v>-104.700598719133</v>
       </c>
@@ -6789,15 +7403,19 @@
         <v>22.251222213110101</v>
       </c>
       <c r="N154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.15459690035761103</v>
       </c>
       <c r="R154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>384.25733521323451</v>
       </c>
-    </row>
-    <row r="155" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T154">
+        <f t="shared" si="11"/>
+        <v>660.67209468802014</v>
+      </c>
+    </row>
+    <row r="155" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B155">
         <v>-104.700590081577</v>
       </c>
@@ -6832,15 +7450,19 @@
         <v>17.152347037801</v>
       </c>
       <c r="N155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.8797393180611292E-2</v>
       </c>
       <c r="R155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>304.58815957933967</v>
       </c>
-    </row>
-    <row r="156" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T155">
+        <f t="shared" si="11"/>
+        <v>449.27050611046678</v>
+      </c>
+    </row>
+    <row r="156" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B156">
         <v>-104.70055025284501</v>
       </c>
@@ -6875,15 +7497,19 @@
         <v>22.488295979849699</v>
       </c>
       <c r="N156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.76442417755337744</v>
       </c>
       <c r="R156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>976.71085651319538</v>
       </c>
-    </row>
-    <row r="157" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T156">
+        <f t="shared" si="11"/>
+        <v>1289.1457872284184</v>
+      </c>
+    </row>
+    <row r="157" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B157">
         <v>-104.70061599424599</v>
       </c>
@@ -6918,15 +7544,19 @@
         <v>21.883542358000302</v>
       </c>
       <c r="N157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.25157131967283974</v>
       </c>
       <c r="R157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>476.89069750223564</v>
       </c>
-    </row>
-    <row r="158" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T157">
+        <f t="shared" si="11"/>
+        <v>862.18538078974382</v>
+      </c>
+    </row>
+    <row r="158" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B158">
         <v>-104.700593800524</v>
       </c>
@@ -6961,15 +7591,19 @@
         <v>40.112315463089899</v>
       </c>
       <c r="N158">
-        <f t="shared" ref="N158:N193" si="9">H158*$O$5</f>
+        <f t="shared" ref="N158:N193" si="12">H158*$O$5</f>
         <v>1.6852339799313136</v>
       </c>
       <c r="R158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1381.4388555764676</v>
       </c>
-    </row>
-    <row r="159" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T158">
+        <f t="shared" si="11"/>
+        <v>2600.7100550663326</v>
+      </c>
+    </row>
+    <row r="159" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B159">
         <v>-104.700518701771</v>
       </c>
@@ -7004,15 +7638,19 @@
         <v>10.9914137555604</v>
       </c>
       <c r="N159">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.4811628308607543E-2</v>
       </c>
       <c r="R159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>255.443075210605</v>
       </c>
-    </row>
-    <row r="160" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T159">
+        <f t="shared" si="11"/>
+        <v>307.78509583211161</v>
+      </c>
+    </row>
+    <row r="160" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B160">
         <v>-104.700612995094</v>
       </c>
@@ -7047,15 +7685,19 @@
         <v>43.146493163495499</v>
       </c>
       <c r="N160">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3833228431172351</v>
       </c>
       <c r="R160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1333.3105591161241</v>
       </c>
-    </row>
-    <row r="161" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T160">
+        <f t="shared" si="11"/>
+        <v>2329.8925398625083</v>
+      </c>
+    </row>
+    <row r="161" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B161">
         <v>-104.700583963307</v>
       </c>
@@ -7090,15 +7732,19 @@
         <v>11.102519723715799</v>
       </c>
       <c r="N161">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9.1480479881032639E-2</v>
       </c>
       <c r="R161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>343.70780107333189</v>
       </c>
-    </row>
-    <row r="162" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T161">
+        <f t="shared" si="11"/>
+        <v>382.2526563039508</v>
+      </c>
+    </row>
+    <row r="162" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B162">
         <v>-104.700549293116</v>
       </c>
@@ -7133,15 +7779,19 @@
         <v>10.090843679499301</v>
       </c>
       <c r="N162">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.10246835874942482</v>
       </c>
       <c r="R162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>248.84232046021265</v>
       </c>
-    </row>
-    <row r="163" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T162">
+        <f t="shared" si="11"/>
+        <v>584.73963714610488</v>
+      </c>
+    </row>
+    <row r="163" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B163">
         <v>-104.70055697094401</v>
       </c>
@@ -7176,15 +7826,19 @@
         <v>12.3802025976787</v>
       </c>
       <c r="N163">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.76889598872074638</v>
       </c>
       <c r="R163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>975.15565785164051</v>
       </c>
-    </row>
-    <row r="164" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T163">
+        <f t="shared" si="11"/>
+        <v>1148.9267059128817</v>
+      </c>
+    </row>
+    <row r="164" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B164">
         <v>-104.70056932744799</v>
       </c>
@@ -7219,15 +7873,19 @@
         <v>13.313664383356899</v>
       </c>
       <c r="N164">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.17388957139397404</v>
       </c>
       <c r="R164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>436.92677011184384</v>
       </c>
-    </row>
-    <row r="165" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T164">
+        <f t="shared" si="11"/>
+        <v>586.1586204694828</v>
+      </c>
+    </row>
+    <row r="165" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B165">
         <v>-104.70058768225501</v>
       </c>
@@ -7262,15 +7920,19 @@
         <v>27.167879437741</v>
       </c>
       <c r="N165">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.12393305235279561</v>
       </c>
       <c r="R165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>325.99376508009436</v>
       </c>
-    </row>
-    <row r="166" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T165">
+        <f t="shared" si="11"/>
+        <v>666.43195946081062</v>
+      </c>
+    </row>
+    <row r="166" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B166">
         <v>-104.70058876195</v>
       </c>
@@ -7305,15 +7967,19 @@
         <v>43.193065025775297</v>
       </c>
       <c r="N166">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.46506836140636704</v>
       </c>
       <c r="R166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>975.18965343165212</v>
       </c>
-    </row>
-    <row r="167" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T166">
+        <f t="shared" si="11"/>
+        <v>1071.8333644843083</v>
+      </c>
+    </row>
+    <row r="167" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B167">
         <v>-104.700578684801</v>
       </c>
@@ -7348,15 +8014,19 @@
         <v>24.613382303328901</v>
       </c>
       <c r="N167">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.21439140396700107</v>
       </c>
       <c r="R167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>356.4670966255897</v>
       </c>
-    </row>
-    <row r="168" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T167">
+        <f t="shared" si="11"/>
+        <v>1018.5786748968654</v>
+      </c>
+    </row>
+    <row r="168" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B168">
         <v>-104.700609995943</v>
       </c>
@@ -7391,15 +8061,19 @@
         <v>37.825469608700601</v>
       </c>
       <c r="N168">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.815856301384431E-2</v>
       </c>
       <c r="R168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>273.95454708516581</v>
       </c>
-    </row>
-    <row r="169" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T168">
+        <f t="shared" si="11"/>
+        <v>660.80663401187724</v>
+      </c>
+    </row>
+    <row r="169" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B169">
         <v>-104.700579284631</v>
       </c>
@@ -7434,15 +8108,19 @@
         <v>13.5696632432059</v>
       </c>
       <c r="N169">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9.199154401444623E-2</v>
       </c>
       <c r="R169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>260.60955213613192</v>
       </c>
-    </row>
-    <row r="170" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T169">
+        <f t="shared" si="11"/>
+        <v>521.42553081636333</v>
+      </c>
+    </row>
+    <row r="170" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B170">
         <v>-104.700620313024</v>
       </c>
@@ -7477,15 +8155,19 @@
         <v>23.6319355232181</v>
       </c>
       <c r="N170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.052685041107544E-2</v>
       </c>
       <c r="R170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>265.96910395848261</v>
       </c>
-    </row>
-    <row r="171" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T170">
+        <f t="shared" si="11"/>
+        <v>443.3150082291404</v>
+      </c>
+    </row>
+    <row r="171" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B171">
         <v>-104.700586362629</v>
       </c>
@@ -7520,15 +8202,19 @@
         <v>21.968650033049201</v>
       </c>
       <c r="N171">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.089844264504481</v>
       </c>
       <c r="R171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>995.60345228395465</v>
       </c>
-    </row>
-    <row r="172" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T171">
+        <f t="shared" si="11"/>
+        <v>1791.0588146388568</v>
+      </c>
+    </row>
+    <row r="172" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B172">
         <v>-104.700611075637</v>
       </c>
@@ -7563,15 +8249,19 @@
         <v>39.904276994145398</v>
       </c>
       <c r="N172">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.47835602887512041</v>
       </c>
       <c r="R172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>846.3370385717152</v>
       </c>
-    </row>
-    <row r="173" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T172">
+        <f t="shared" si="11"/>
+        <v>1200.7850123482635</v>
+      </c>
+    </row>
+    <row r="173" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B173">
         <v>-104.700596919642</v>
       </c>
@@ -7606,15 +8296,19 @@
         <v>18.4581510963684</v>
       </c>
       <c r="N173">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.19752628756435259</v>
       </c>
       <c r="R173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>476.25192081125221</v>
       </c>
-    </row>
-    <row r="174" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T173">
+        <f t="shared" si="11"/>
+        <v>649.3943791810492</v>
+      </c>
+    </row>
+    <row r="174" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B174">
         <v>-104.700594880219</v>
       </c>
@@ -7649,15 +8343,19 @@
         <v>29.2682632728255</v>
       </c>
       <c r="N174">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.46264080677265251</v>
       </c>
       <c r="R174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>687.52531289068031</v>
       </c>
-    </row>
-    <row r="175" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T174">
+        <f t="shared" si="11"/>
+        <v>1214.6239524800321</v>
+      </c>
+    </row>
+    <row r="175" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B175">
         <v>-104.70050706506299</v>
       </c>
@@ -7692,15 +8390,19 @@
         <v>12.5035627542465</v>
       </c>
       <c r="N175">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.15804658325815277</v>
       </c>
       <c r="R175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>376.62100874949078</v>
       </c>
-    </row>
-    <row r="176" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T175">
+        <f t="shared" si="11"/>
+        <v>612.33786900891118</v>
+      </c>
+    </row>
+    <row r="176" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B176">
         <v>-104.700498907371</v>
       </c>
@@ -7735,15 +8437,19 @@
         <v>33.8392176156094</v>
       </c>
       <c r="N176">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0761732989356674</v>
       </c>
       <c r="R176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1277.7952911443385</v>
       </c>
-    </row>
-    <row r="177" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T176">
+        <f t="shared" si="11"/>
+        <v>1625.253895018066</v>
+      </c>
+    </row>
+    <row r="177" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B177">
         <v>-104.70057748514</v>
       </c>
@@ -7778,15 +8484,19 @@
         <v>39.985989723645098</v>
       </c>
       <c r="N177">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.11256187538434323</v>
       </c>
       <c r="R177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>275.69550449922559</v>
       </c>
-    </row>
-    <row r="178" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T177">
+        <f t="shared" si="11"/>
+        <v>868.58016208940353</v>
+      </c>
+    </row>
+    <row r="178" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B178">
         <v>-104.700574725921</v>
       </c>
@@ -7821,15 +8531,19 @@
         <v>19.926412829088001</v>
       </c>
       <c r="N178">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.22729577333569423</v>
       </c>
       <c r="R178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>435.45456318893287</v>
       </c>
-    </row>
-    <row r="179" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T178">
+        <f t="shared" si="11"/>
+        <v>832.26215760773937</v>
+      </c>
+    </row>
+    <row r="179" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B179">
         <v>-104.700580364326</v>
       </c>
@@ -7864,15 +8578,19 @@
         <v>36.938913283258699</v>
       </c>
       <c r="N179">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.12201656185249465</v>
       </c>
       <c r="R179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>425.81680186961222</v>
       </c>
-    </row>
-    <row r="180" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T179">
+        <f t="shared" si="11"/>
+        <v>580.14353606062639</v>
+      </c>
+    </row>
+    <row r="180" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B180">
         <v>-104.700453080336</v>
       </c>
@@ -7907,15 +8625,19 @@
         <v>29.4443571373677</v>
       </c>
       <c r="N180">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5052116389363763</v>
       </c>
       <c r="R180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>981.55394224944814</v>
       </c>
-    </row>
-    <row r="181" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T180">
+        <f t="shared" si="11"/>
+        <v>2774.9333828783219</v>
+      </c>
+    </row>
+    <row r="181" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B181">
         <v>-104.700439404205</v>
       </c>
@@ -7950,15 +8672,19 @@
         <v>12.6025352088466</v>
       </c>
       <c r="N181">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.50991423911340961</v>
       </c>
       <c r="R181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>726.23885783117157</v>
       </c>
-    </row>
-    <row r="182" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T181">
+        <f t="shared" si="11"/>
+        <v>1025.698548760158</v>
+      </c>
+    </row>
+    <row r="182" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B182">
         <v>-104.700568487686</v>
       </c>
@@ -7993,15 +8719,19 @@
         <v>16.3408483665715</v>
       </c>
       <c r="N182">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.7937280345572499E-2</v>
       </c>
       <c r="R182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>276.50015223221141</v>
       </c>
-    </row>
-    <row r="183" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T182">
+        <f t="shared" si="11"/>
+        <v>430.16724157753146</v>
+      </c>
+    </row>
+    <row r="183" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B183">
         <v>-104.700538256239</v>
       </c>
@@ -8036,15 +8766,19 @@
         <v>26.2111969159123</v>
       </c>
       <c r="N183">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3.2935528077838816</v>
       </c>
       <c r="R183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2167.6325995862658</v>
       </c>
-    </row>
-    <row r="184" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T183">
+        <f t="shared" si="11"/>
+        <v>2628.992881876055</v>
+      </c>
+    </row>
+    <row r="184" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B184">
         <v>-104.700578684801</v>
       </c>
@@ -8079,15 +8813,19 @@
         <v>4.1340122792415901</v>
       </c>
       <c r="N184">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.50186497901214555</v>
       </c>
       <c r="R184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>718.55064848143593</v>
       </c>
-    </row>
-    <row r="185" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T184">
+        <f t="shared" si="11"/>
+        <v>930.17759116260459</v>
+      </c>
+    </row>
+    <row r="185" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B185">
         <v>-104.700573046396</v>
       </c>
@@ -8122,15 +8860,19 @@
         <v>12.333188525964999</v>
       </c>
       <c r="N185">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.0654616444428844E-2</v>
       </c>
       <c r="R185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>279.01604163840602</v>
       </c>
-    </row>
-    <row r="186" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T185">
+        <f t="shared" si="11"/>
+        <v>368.78825173431591</v>
+      </c>
+    </row>
+    <row r="186" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B186">
         <v>-104.70051270346799</v>
       </c>
@@ -8165,15 +8907,19 @@
         <v>13.031268236124101</v>
       </c>
       <c r="N186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6.3499718576638581E-2</v>
       </c>
       <c r="R186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>268.15424703301051</v>
       </c>
-    </row>
-    <row r="187" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T186">
+        <f t="shared" si="11"/>
+        <v>347.63612681224242</v>
+      </c>
+    </row>
+    <row r="187" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B187">
         <v>-104.70051666234799</v>
       </c>
@@ -8208,15 +8954,19 @@
         <v>31.952793305393399</v>
       </c>
       <c r="N187">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4.9062156807704656E-2</v>
       </c>
       <c r="R187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>259.30176543911136</v>
       </c>
-    </row>
-    <row r="188" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T187">
+        <f t="shared" si="11"/>
+        <v>355.00280037366792</v>
+      </c>
+    </row>
+    <row r="188" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B188">
         <v>-104.70051198367101</v>
       </c>
@@ -8251,15 +9001,19 @@
         <v>41.014678939415901</v>
       </c>
       <c r="N188">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.16762903575965757</v>
       </c>
       <c r="R188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>521.94399163003402</v>
       </c>
-    </row>
-    <row r="189" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T188">
+        <f t="shared" si="11"/>
+        <v>695.15606366344286</v>
+      </c>
+    </row>
+    <row r="189" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B189">
         <v>-104.700474794193</v>
       </c>
@@ -8294,15 +9048,19 @@
         <v>8.2101339805197195</v>
       </c>
       <c r="N189">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.12048336945225388</v>
       </c>
       <c r="R189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>339.57312484616153</v>
       </c>
-    </row>
-    <row r="190" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T189">
+        <f t="shared" si="11"/>
+        <v>493.51456694905301</v>
+      </c>
+    </row>
+    <row r="190" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B190">
         <v>-104.70049974713299</v>
       </c>
@@ -8337,15 +9095,19 @@
         <v>24.334966495229999</v>
       </c>
       <c r="N190">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.12444411648620921</v>
       </c>
       <c r="R190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>327.7471708101869</v>
       </c>
-    </row>
-    <row r="191" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T190">
+        <f t="shared" si="11"/>
+        <v>640.67991197265553</v>
+      </c>
+    </row>
+    <row r="191" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B191">
         <v>-104.70059272083</v>
       </c>
@@ -8380,15 +9142,19 @@
         <v>10.1518707234274</v>
       </c>
       <c r="N191">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.1663513754261236</v>
       </c>
       <c r="R191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>315.39585616280363</v>
       </c>
-    </row>
-    <row r="192" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T191">
+        <f t="shared" si="11"/>
+        <v>749.48387340269664</v>
+      </c>
+    </row>
+    <row r="192" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B192">
         <v>-104.70055925029899</v>
       </c>
@@ -8423,15 +9189,19 @@
         <v>13.4236808350588</v>
       </c>
       <c r="N192">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.36566638745742375</v>
       </c>
       <c r="R192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>330.60166739603994</v>
       </c>
-    </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T192">
+        <f t="shared" si="11"/>
+        <v>1631.104563182485</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B193">
         <v>-104.70047059538101</v>
       </c>
@@ -8466,15 +9236,25 @@
         <v>13.6482315446478</v>
       </c>
       <c r="N193">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.3406201941720174E-2</v>
       </c>
       <c r="R193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>253.59406623060227</v>
       </c>
-    </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T193">
+        <f t="shared" si="11"/>
+        <v>311.37395906935785</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T194">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>44</v>
       </c>
@@ -8512,15 +9292,19 @@
         <v>12.003416013373499</v>
       </c>
       <c r="N195">
-        <f t="shared" ref="N195:N226" si="10">H195*$O$5</f>
+        <f t="shared" ref="N195:N226" si="13">H195*$O$5</f>
         <v>0.26089824010763779</v>
       </c>
       <c r="R195">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>514.85179906786777</v>
       </c>
-    </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T195">
+        <f t="shared" si="11"/>
+        <v>735.23135584165118</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B196">
         <v>-104.700508624622</v>
       </c>
@@ -8555,15 +9339,19 @@
         <v>12.916669039134201</v>
       </c>
       <c r="N196">
+        <f t="shared" si="13"/>
+        <v>0.27469697170980473</v>
+      </c>
+      <c r="R196">
         <f t="shared" si="10"/>
-        <v>0.27469697170980473</v>
-      </c>
-      <c r="R196">
-        <f t="shared" si="8"/>
         <v>538.6888081185192</v>
       </c>
-    </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T196">
+        <f t="shared" si="11"/>
+        <v>747.62153947120646</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B197">
         <v>-104.70051354323</v>
       </c>
@@ -8598,15 +9386,19 @@
         <v>7.5518102850003697</v>
       </c>
       <c r="N197">
+        <f t="shared" si="13"/>
+        <v>0.16916222815989834</v>
+      </c>
+      <c r="R197">
         <f t="shared" si="10"/>
-        <v>0.16916222815989834</v>
-      </c>
-      <c r="R197">
-        <f t="shared" si="8"/>
         <v>370.09485648019313</v>
       </c>
-    </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T197">
+        <f t="shared" si="11"/>
+        <v>631.23759259041731</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B198">
         <v>-104.700597159574</v>
       </c>
@@ -8641,15 +9433,19 @@
         <v>12.8815327246758</v>
       </c>
       <c r="N198">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.11026208678398208</v>
       </c>
       <c r="R198">
-        <f t="shared" ref="R198:R254" si="11">S$5*E198</f>
+        <f t="shared" ref="R198:R254" si="14">S$5*E198</f>
         <v>327.95864935187262</v>
       </c>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T198">
+        <f t="shared" ref="T198:T254" si="15">D198*S$5</f>
+        <v>492.71729978244889</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B199">
         <v>-104.700488710256</v>
       </c>
@@ -8684,15 +9480,19 @@
         <v>33.4968717106686</v>
       </c>
       <c r="N199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.84274475599901022</v>
       </c>
       <c r="R199">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1048.4373637572128</v>
       </c>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T199">
+        <f t="shared" si="15"/>
+        <v>1543.1651712769226</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B200">
         <v>-104.700497827676</v>
       </c>
@@ -8727,15 +9527,19 @@
         <v>16.186674968862501</v>
       </c>
       <c r="N200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8.6753136646956927E-2</v>
       </c>
       <c r="R200">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>315.79467365569553</v>
       </c>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T200">
+        <f t="shared" si="15"/>
+        <v>418.47376255965861</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B201">
         <v>-104.700476953582</v>
       </c>
@@ -8770,15 +9574,19 @@
         <v>35.207021249526001</v>
       </c>
       <c r="N201">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.10221282668271803</v>
       </c>
       <c r="R201">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>394.37732561309491</v>
       </c>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T201">
+        <f t="shared" si="15"/>
+        <v>510.70067696303852</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B202">
         <v>-104.700528059123</v>
       </c>
@@ -8813,15 +9621,19 @@
         <v>19.8666967695703</v>
       </c>
       <c r="N202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.54811628308607541</v>
       </c>
       <c r="R202">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>805.19786660910802</v>
       </c>
-    </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T202">
+        <f t="shared" si="15"/>
+        <v>1084.5709348331952</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B203">
         <v>-104.700559010367</v>
       </c>
@@ -8856,15 +9668,19 @@
         <v>10.023221848305299</v>
       </c>
       <c r="N203">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.13108795022058586</v>
       </c>
       <c r="R203">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>382.67650334510341</v>
       </c>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T203">
+        <f t="shared" si="15"/>
+        <v>486.07295334364926</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B204">
         <v>-104.7005129434</v>
       </c>
@@ -8899,15 +9715,19 @@
         <v>10.261718106858</v>
       </c>
       <c r="N204">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.29628943134652891</v>
       </c>
       <c r="R204">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>635.23985153757553</v>
       </c>
-    </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T204">
+        <f t="shared" si="15"/>
+        <v>663.59268987598239</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B205">
         <v>-104.70048223208801</v>
       </c>
@@ -8942,15 +9762,19 @@
         <v>8.4891837169929207</v>
       </c>
       <c r="N205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8.0237068945933659E-2</v>
       </c>
       <c r="R205">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>256.53742295392158</v>
       </c>
-    </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T205">
+        <f t="shared" si="15"/>
+        <v>436.36792171991704</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B206">
         <v>-104.700573406294</v>
       </c>
@@ -8985,15 +9809,19 @@
         <v>31.235711630925401</v>
       </c>
       <c r="N206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.14373678752257224</v>
       </c>
       <c r="R206">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>416.20135666420265</v>
       </c>
-    </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T206">
+        <f t="shared" si="15"/>
+        <v>641.21313266741947</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B207">
         <v>-104.700454040064</v>
       </c>
@@ -9028,15 +9856,19 @@
         <v>10.0105560389199</v>
       </c>
       <c r="N207">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.17235637899373329</v>
       </c>
       <c r="R207">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>378.2664451291418</v>
       </c>
-    </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T207">
+        <f t="shared" si="15"/>
+        <v>646.4558855842397</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B208">
         <v>-104.700580964156</v>
       </c>
@@ -9071,15 +9903,19 @@
         <v>29.453965975436301</v>
       </c>
       <c r="N208">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.9249190077541461E-2</v>
       </c>
       <c r="R208">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>288.54187829893613</v>
       </c>
-    </row>
-    <row r="209" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T208">
+        <f t="shared" si="15"/>
+        <v>434.34433246747318</v>
+      </c>
+    </row>
+    <row r="209" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B209">
         <v>-104.70049350889801</v>
       </c>
@@ -9114,15 +9950,19 @@
         <v>16.151828015945799</v>
       </c>
       <c r="N209">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9.3269204347980209E-2</v>
       </c>
       <c r="R209">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>323.25614670608809</v>
       </c>
-    </row>
-    <row r="210" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T209">
+        <f t="shared" si="15"/>
+        <v>439.33803184855543</v>
+      </c>
+    </row>
+    <row r="210" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B210">
         <v>-104.700488110425</v>
       </c>
@@ -9157,15 +9997,19 @@
         <v>11.250238208687099</v>
       </c>
       <c r="N210">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.29296751447934055</v>
       </c>
       <c r="R210">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>582.72996806413732</v>
       </c>
-    </row>
-    <row r="211" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T210">
+        <f t="shared" si="15"/>
+        <v>723.24565968475167</v>
+      </c>
+    </row>
+    <row r="211" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B211">
         <v>-104.700444562746</v>
       </c>
@@ -9200,15 +10044,19 @@
         <v>15.144028820117001</v>
       </c>
       <c r="N211">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.15791881722479936</v>
       </c>
       <c r="R211">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>428.35375082538644</v>
       </c>
-    </row>
-    <row r="212" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T211">
+        <f t="shared" si="15"/>
+        <v>554.68933889013624</v>
+      </c>
+    </row>
+    <row r="212" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B212">
         <v>-104.700535856917</v>
       </c>
@@ -9243,15 +10091,19 @@
         <v>15.401026353536899</v>
       </c>
       <c r="N212">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.95364567294975922</v>
       </c>
       <c r="R212">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1124.4391202084182</v>
       </c>
-    </row>
-    <row r="213" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T212">
+        <f t="shared" si="15"/>
+        <v>1279.9320684447882</v>
+      </c>
+    </row>
+    <row r="213" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B213">
         <v>-104.700454399962</v>
       </c>
@@ -9286,15 +10138,19 @@
         <v>11.427726500430101</v>
       </c>
       <c r="N213">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.29207315224586677</v>
       </c>
       <c r="R213">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>587.60619327418317</v>
       </c>
-    </row>
-    <row r="214" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T213">
+        <f t="shared" si="15"/>
+        <v>716.48713972550649</v>
+      </c>
+    </row>
+    <row r="214" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B214">
         <v>-104.700463517383</v>
       </c>
@@ -9329,15 +10185,19 @@
         <v>25.388657129742501</v>
       </c>
       <c r="N214">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8.9563989380731679E-2</v>
       </c>
       <c r="R214">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>242.10077400943081</v>
       </c>
-    </row>
-    <row r="215" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T214">
+        <f t="shared" si="15"/>
+        <v>633.04315035129855</v>
+      </c>
+    </row>
+    <row r="215" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B215">
         <v>-104.70047275477</v>
       </c>
@@ -9372,15 +10232,19 @@
         <v>13.1016764979668</v>
       </c>
       <c r="N215">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.1617477474772605E-2</v>
       </c>
       <c r="R215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>244.59116250976373</v>
       </c>
-    </row>
-    <row r="216" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T215">
+        <f t="shared" si="15"/>
+        <v>310.05985285586644</v>
+      </c>
+    </row>
+    <row r="216" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B216">
         <v>-104.700507904825</v>
       </c>
@@ -9415,15 +10279,19 @@
         <v>16.066264441921199</v>
       </c>
       <c r="N216">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.50263157521226598</v>
       </c>
       <c r="R216">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>556.55722514541333</v>
       </c>
-    </row>
-    <row r="217" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T216">
+        <f t="shared" si="15"/>
+        <v>1373.7392557793787</v>
+      </c>
+    </row>
+    <row r="217" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B217">
         <v>-104.700494348661</v>
       </c>
@@ -9458,15 +10326,19 @@
         <v>24.103187562931002</v>
       </c>
       <c r="N217">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.49483784717770868</v>
       </c>
       <c r="R217">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>725.14102511776844</v>
       </c>
-    </row>
-    <row r="218" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T217">
+        <f t="shared" si="15"/>
+        <v>1147.9363673222101</v>
+      </c>
+    </row>
+    <row r="218" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B218">
         <v>-104.700474194362</v>
       </c>
@@ -9501,15 +10373,19 @@
         <v>7.7044612218348796</v>
       </c>
       <c r="N218">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.15766328515809255</v>
       </c>
       <c r="R218">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>350.1219749602451</v>
       </c>
-    </row>
-    <row r="219" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T218">
+        <f t="shared" si="15"/>
+        <v>622.91876127677654</v>
+      </c>
+    </row>
+    <row r="219" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B219">
         <v>-104.700498907371</v>
       </c>
@@ -9544,15 +10420,19 @@
         <v>11.370220712092699</v>
       </c>
       <c r="N219">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9.2502608147859822E-2</v>
       </c>
       <c r="R219">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>305.80499629815262</v>
       </c>
-    </row>
-    <row r="220" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T219">
+        <f t="shared" si="15"/>
+        <v>435.74323387581626</v>
+      </c>
+    </row>
+    <row r="220" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B220">
         <v>-104.700486790799</v>
       </c>
@@ -9587,15 +10467,19 @@
         <v>10.0764688500985</v>
       </c>
       <c r="N220">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.15842988135821295</v>
       </c>
       <c r="R220">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>367.54263781760034</v>
       </c>
-    </row>
-    <row r="221" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T220">
+        <f t="shared" si="15"/>
+        <v>612.00776893877912</v>
+      </c>
+    </row>
+    <row r="221" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B221">
         <v>-104.700536936612</v>
       </c>
@@ -9630,15 +10514,19 @@
         <v>35.154925282985097</v>
       </c>
       <c r="N221">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.30919380071522207</v>
       </c>
       <c r="R221">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>587.56427244192651</v>
       </c>
-    </row>
-    <row r="222" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T221">
+        <f t="shared" si="15"/>
+        <v>1036.0943880648192</v>
+      </c>
+    </row>
+    <row r="222" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B222">
         <v>-104.700427767497</v>
       </c>
@@ -9673,15 +10561,19 @@
         <v>14.3520549974644</v>
       </c>
       <c r="N222">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.12802156542010434</v>
       </c>
       <c r="R222">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>329.86309906259174</v>
       </c>
-    </row>
-    <row r="223" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T222">
+        <f t="shared" si="15"/>
+        <v>578.53997173096684</v>
+      </c>
+    </row>
+    <row r="223" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B223">
         <v>-104.70052817908901</v>
       </c>
@@ -9716,15 +10608,19 @@
         <v>33.875780185006803</v>
       </c>
       <c r="N223">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.2287011997025816</v>
       </c>
       <c r="R223">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>449.4530908013233</v>
       </c>
-    </row>
-    <row r="224" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T223">
+        <f t="shared" si="15"/>
+        <v>982.48160819030932</v>
+      </c>
+    </row>
+    <row r="224" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B224">
         <v>-104.70039537666101</v>
       </c>
@@ -9759,15 +10655,19 @@
         <v>14.529886719450699</v>
       </c>
       <c r="N224">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.33346934705236758</v>
       </c>
       <c r="R224">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>570.95779928514503</v>
       </c>
-    </row>
-    <row r="225" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T224">
+        <f t="shared" si="15"/>
+        <v>872.44598527366554</v>
+      </c>
+    </row>
+    <row r="225" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B225">
         <v>-104.700473114668</v>
       </c>
@@ -9802,15 +10702,19 @@
         <v>12.681302926656</v>
       </c>
       <c r="N225">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.2335563089700107</v>
       </c>
       <c r="R225">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>475.36501961999488</v>
       </c>
-    </row>
-    <row r="226" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T225">
+        <f t="shared" si="15"/>
+        <v>718.38632187825476</v>
+      </c>
+    </row>
+    <row r="226" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B226">
         <v>-104.700391537747</v>
       </c>
@@ -9845,15 +10749,19 @@
         <v>17.601428034645501</v>
       </c>
       <c r="N226">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.24658844437205726</v>
       </c>
       <c r="R226">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>503.03857411132162</v>
       </c>
-    </row>
-    <row r="227" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T226">
+        <f t="shared" si="15"/>
+        <v>759.54352440534967</v>
+      </c>
+    </row>
+    <row r="227" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B227">
         <v>-104.700459078639</v>
       </c>
@@ -9888,15 +10796,19 @@
         <v>26.822252564026801</v>
       </c>
       <c r="N227">
-        <f t="shared" ref="N227:N254" si="12">H227*$O$5</f>
+        <f t="shared" ref="N227:N254" si="16">H227*$O$5</f>
         <v>5.2128541608186196E-2</v>
       </c>
       <c r="R227">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>254.89344064913649</v>
       </c>
-    </row>
-    <row r="228" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T227">
+        <f t="shared" si="15"/>
+        <v>356.81146215609613</v>
+      </c>
+    </row>
+    <row r="228" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B228">
         <v>-104.700530818343</v>
       </c>
@@ -9931,15 +10843,19 @@
         <v>27.849436441786398</v>
       </c>
       <c r="N228">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.12291092408596843</v>
       </c>
       <c r="R228">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>323.09488586469354</v>
       </c>
-    </row>
-    <row r="229" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T228">
+        <f t="shared" si="15"/>
+        <v>673.16509852620572</v>
+      </c>
+    </row>
+    <row r="229" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B229">
         <v>-104.700469515686</v>
       </c>
@@ -9974,15 +10890,19 @@
         <v>23.350045814411502</v>
       </c>
       <c r="N229">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9.0586117647558861E-2</v>
       </c>
       <c r="R229">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>229.78784925463742</v>
       </c>
-    </row>
-    <row r="230" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T229">
+        <f t="shared" si="15"/>
+        <v>656.63436195761915</v>
+      </c>
+    </row>
+    <row r="230" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B230">
         <v>-104.70051990143099</v>
       </c>
@@ -10017,15 +10937,19 @@
         <v>38.588939263905203</v>
       </c>
       <c r="N230">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.82115229636228604</v>
       </c>
       <c r="R230">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1226.7715776595157</v>
       </c>
-    </row>
-    <row r="231" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T230">
+        <f t="shared" si="15"/>
+        <v>1391.5996986225143</v>
+      </c>
+    </row>
+    <row r="231" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B231">
         <v>-104.700531418173</v>
       </c>
@@ -10060,15 +10984,19 @@
         <v>21.812151933401399</v>
       </c>
       <c r="N231">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.1511472174570693</v>
       </c>
       <c r="R231">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>424.63926409701543</v>
       </c>
-    </row>
-    <row r="232" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T231">
+        <f t="shared" si="15"/>
+        <v>581.22149368965358</v>
+      </c>
+    </row>
+    <row r="232" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B232">
         <v>-104.70043628508699</v>
       </c>
@@ -10103,15 +11031,19 @@
         <v>26.272608074783999</v>
       </c>
       <c r="N232">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.23151205243635634</v>
       </c>
       <c r="R232">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>383.81926178858691</v>
       </c>
-    </row>
-    <row r="233" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T232">
+        <f t="shared" si="15"/>
+        <v>1044.5251151374723</v>
+      </c>
+    </row>
+    <row r="233" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B233">
         <v>-104.70051102394299</v>
       </c>
@@ -10146,15 +11078,19 @@
         <v>24.2469912428501</v>
       </c>
       <c r="N233">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.21451917000035448</v>
       </c>
       <c r="R233">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>519.21405213744242</v>
       </c>
-    </row>
-    <row r="234" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T233">
+        <f t="shared" si="15"/>
+        <v>696.33897203441029</v>
+      </c>
+    </row>
+    <row r="234" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B234">
         <v>-104.700442763255</v>
       </c>
@@ -10189,15 +11125,19 @@
         <v>13.4296974767138</v>
       </c>
       <c r="N234">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.3883016676698767E-2</v>
       </c>
       <c r="R234">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>239.90147430692656</v>
       </c>
-    </row>
-    <row r="235" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T234">
+        <f t="shared" si="15"/>
+        <v>392.72132355465885</v>
+      </c>
+    </row>
+    <row r="235" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B235">
         <v>-104.70042620793799</v>
       </c>
@@ -10232,15 +11172,19 @@
         <v>14.6219331697014</v>
       </c>
       <c r="N235">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.1838760143044409E-2</v>
       </c>
       <c r="R235">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>233.28271436989672</v>
       </c>
-    </row>
-    <row r="236" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T235">
+        <f t="shared" si="15"/>
+        <v>396.3992418316729</v>
+      </c>
+    </row>
+    <row r="236" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B236">
         <v>-104.700439404205</v>
       </c>
@@ -10275,15 +11219,19 @@
         <v>14.3102753868011</v>
       </c>
       <c r="N236">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.9224172239493045E-2</v>
       </c>
       <c r="R236">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>227.56975339426793</v>
       </c>
-    </row>
-    <row r="237" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T236">
+        <f t="shared" si="15"/>
+        <v>256.80969792222976</v>
+      </c>
+    </row>
+    <row r="237" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B237">
         <v>-104.700473714498</v>
       </c>
@@ -10318,15 +11266,19 @@
         <v>14.0279681447222</v>
       </c>
       <c r="N237">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.42162791006621186</v>
       </c>
       <c r="R237">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>676.63329377836953</v>
       </c>
-    </row>
-    <row r="238" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T237">
+        <f t="shared" si="15"/>
+        <v>925.37916267519267</v>
+      </c>
+    </row>
+    <row r="238" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B238">
         <v>-104.70043844447601</v>
       </c>
@@ -10361,15 +11313,19 @@
         <v>36.742400056093601</v>
       </c>
       <c r="N238">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.11537272811811798</v>
       </c>
       <c r="R238">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>294.525898776926</v>
       </c>
-    </row>
-    <row r="239" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T238">
+        <f t="shared" si="15"/>
+        <v>790.62015332983151</v>
+      </c>
+    </row>
+    <row r="239" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B239">
         <v>-104.700422848889</v>
       </c>
@@ -10404,15 +11360,19 @@
         <v>19.305695001720501</v>
       </c>
       <c r="N239">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.10208506064936464</v>
       </c>
       <c r="R239">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>252.97017228164049</v>
       </c>
-    </row>
-    <row r="240" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T239">
+        <f t="shared" si="15"/>
+        <v>638.48530734971746</v>
+      </c>
+    </row>
+    <row r="240" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B240">
         <v>-104.70041673062001</v>
       </c>
@@ -10447,15 +11407,19 @@
         <v>20.6689344193232</v>
       </c>
       <c r="N240">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.10872889438374131</v>
       </c>
       <c r="R240">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>385.50183178451073</v>
       </c>
-    </row>
-    <row r="241" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T240">
+        <f t="shared" si="15"/>
+        <v>453.91669546757095</v>
+      </c>
+    </row>
+    <row r="241" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B241">
         <v>-104.70045020115001</v>
       </c>
@@ -10490,15 +11454,19 @@
         <v>12.651381577042001</v>
       </c>
       <c r="N241">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.8968640172786249E-2</v>
       </c>
       <c r="R241">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>236.52794063699321</v>
       </c>
-    </row>
-    <row r="242" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T241">
+        <f t="shared" si="15"/>
+        <v>240.81175295316569</v>
+      </c>
+    </row>
+    <row r="242" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B242">
         <v>-104.70053069837699</v>
       </c>
@@ -10533,15 +11501,19 @@
         <v>10.049893027869899</v>
       </c>
       <c r="N242">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.8065046378925904E-2</v>
       </c>
       <c r="R242">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>292.26120139373387</v>
       </c>
-    </row>
-    <row r="243" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T242">
+        <f t="shared" si="15"/>
+        <v>379.12697996250455</v>
+      </c>
+    </row>
+    <row r="243" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B243">
         <v>-104.700470955279</v>
       </c>
@@ -10576,15 +11548,19 @@
         <v>12.6554759260517</v>
       </c>
       <c r="N243">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.18040563909499732</v>
       </c>
       <c r="R243">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>412.44397346912547</v>
       </c>
-    </row>
-    <row r="244" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T243">
+        <f t="shared" si="15"/>
+        <v>639.36724328199898</v>
+      </c>
+    </row>
+    <row r="244" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B244">
         <v>-104.70040989255401</v>
       </c>
@@ -10619,15 +11595,19 @@
         <v>30.521514777056399</v>
       </c>
       <c r="N244">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.30612741591474052</v>
       </c>
       <c r="R244">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>605.66321024121828</v>
       </c>
-    </row>
-    <row r="245" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T244">
+        <f t="shared" si="15"/>
+        <v>928.79872113195006</v>
+      </c>
+    </row>
+    <row r="245" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B245">
         <v>-104.700418770043</v>
       </c>
@@ -10662,15 +11642,19 @@
         <v>7.1025530287274403</v>
       </c>
       <c r="N245">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.32733657745140449</v>
       </c>
       <c r="R245">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>548.12893774985343</v>
       </c>
-    </row>
-    <row r="246" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T245">
+        <f t="shared" si="15"/>
+        <v>820.7463243778019</v>
+      </c>
+    </row>
+    <row r="246" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B246">
         <v>-104.70040257462399</v>
       </c>
@@ -10705,15 +11689,19 @@
         <v>51.124418431568401</v>
       </c>
       <c r="N246">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.13274890865418004</v>
       </c>
       <c r="R246">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>403.09545654795977</v>
       </c>
-    </row>
-    <row r="247" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T246">
+        <f t="shared" si="15"/>
+        <v>860.26457014226992</v>
+      </c>
+    </row>
+    <row r="247" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B247">
         <v>-104.70051426302599</v>
       </c>
@@ -10748,15 +11736,19 @@
         <v>12.109095539004599</v>
       </c>
       <c r="N247">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.11243410935098984</v>
       </c>
       <c r="R247">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>293.05597899489925</v>
       </c>
-    </row>
-    <row r="248" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T247">
+        <f t="shared" si="15"/>
+        <v>557.31981283388234</v>
+      </c>
+    </row>
+    <row r="248" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B248">
         <v>-104.70045092094701</v>
       </c>
@@ -10791,15 +11783,19 @@
         <v>12.3212420324801</v>
       </c>
       <c r="N248">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.33998541475339084</v>
       </c>
       <c r="R248">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>552.06905571880793</v>
       </c>
-    </row>
-    <row r="249" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T248">
+        <f t="shared" si="15"/>
+        <v>896.7541826688481</v>
+      </c>
+    </row>
+    <row r="249" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B249">
         <v>-104.70050658519899</v>
       </c>
@@ -10834,15 +11830,19 @@
         <v>30.9373201683362</v>
       </c>
       <c r="N249">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.58772375342562866</v>
       </c>
       <c r="R249">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>762.58606152105745</v>
       </c>
-    </row>
-    <row r="250" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T249">
+        <f t="shared" si="15"/>
+        <v>1424.760521998732</v>
+      </c>
+    </row>
+    <row r="250" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B250">
         <v>-104.700603637741</v>
       </c>
@@ -10877,15 +11877,19 @@
         <v>46.488071049292799</v>
       </c>
       <c r="N250">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.44539239226994382</v>
       </c>
       <c r="R250">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>565.32958927942002</v>
       </c>
-    </row>
-    <row r="251" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T250">
+        <f t="shared" si="15"/>
+        <v>1879.7123291728969</v>
+      </c>
+    </row>
+    <row r="251" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B251">
         <v>-104.700410132486</v>
       </c>
@@ -10920,15 +11924,19 @@
         <v>9.6177813100357792</v>
       </c>
       <c r="N251">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.20404235526537587</v>
       </c>
       <c r="R251">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>363.00745077680978</v>
       </c>
-    </row>
-    <row r="252" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T251">
+        <f t="shared" si="15"/>
+        <v>794.00403501223548</v>
+      </c>
+    </row>
+    <row r="252" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B252">
         <v>-104.700399575473</v>
       </c>
@@ -10963,15 +11971,19 @@
         <v>18.0330273754969</v>
       </c>
       <c r="N252">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.22103523770137776</v>
       </c>
       <c r="R252">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>444.70830383519785</v>
       </c>
-    </row>
-    <row r="253" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T252">
+        <f t="shared" si="15"/>
+        <v>774.19132320858898</v>
+      </c>
+    </row>
+    <row r="253" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B253">
         <v>-104.70052050126201</v>
       </c>
@@ -11006,15 +12018,19 @@
         <v>10.420097370213499</v>
       </c>
       <c r="N253">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.20187033269836813</v>
       </c>
       <c r="R253">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>418.46562215370483</v>
       </c>
-    </row>
-    <row r="254" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T253">
+        <f t="shared" si="15"/>
+        <v>687.54803603373614</v>
+      </c>
+    </row>
+    <row r="254" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B254">
         <v>-104.700499267269</v>
       </c>
@@ -11049,12 +12065,16 @@
         <v>24.408515676116998</v>
       </c>
       <c r="N254">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.39543587322876539</v>
       </c>
       <c r="R254">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>547.72311351498581</v>
+      </c>
+      <c r="T254">
+        <f t="shared" si="15"/>
+        <v>1219.3911602668859</v>
       </c>
     </row>
   </sheetData>
